--- a/resources/data-imports/items/Artifacts.xlsx
+++ b/resources/data-imports/items/Artifacts.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9A95DE-8AB0-BC40-A740-A01AB5E9DE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="517">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -199,6 +183,21 @@
   </si>
   <si>
     <t>drop_location_id</t>
+  </si>
+  <si>
+    <t>xp_bonus</t>
+  </si>
+  <si>
+    <t>ignores_caps</t>
+  </si>
+  <si>
+    <t>can_use_on_other_items</t>
+  </si>
+  <si>
+    <t>holy_level</t>
+  </si>
+  <si>
+    <t>holy_stacks</t>
   </si>
   <si>
     <t>Stone Sigil</t>
@@ -1572,9 +1571,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1589,33 +1593,21 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -1905,68 +1897,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD222"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:BI222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F203" workbookViewId="0">
-      <selection activeCell="I221" sqref="I221"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="229" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="28" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="38" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="26" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="36" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="229" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="37" max="37" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="38" max="38" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="40" max="40" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="41" max="41" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="42" max="42" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="43" max="43" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="44" max="44" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="45" max="45" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="46" max="46" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="47" max="47" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="48" max="48" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="49" max="49" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="50" max="50" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="51" max="51" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="52" max="52" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="53" max="53" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="54" max="54" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="55" max="55" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="56" max="56" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="57" max="57" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="58" max="58" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="59" max="59" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="60" max="60" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="61" max="61" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2135,16 +2141,31 @@
       <c r="BD1" t="s">
         <v>55</v>
       </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61">
       <c r="D2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -2186,7 +2207,7 @@
         <v>5</v>
       </c>
       <c r="AC2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -2236,16 +2257,19 @@
       <c r="BC2">
         <v>0</v>
       </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61">
       <c r="D3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -2272,16 +2296,16 @@
         <v>10</v>
       </c>
       <c r="AC3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AF3">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AG3">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -2328,16 +2352,19 @@
       <c r="BC3">
         <v>0</v>
       </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61">
       <c r="D4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -2364,13 +2391,13 @@
         <v>10</v>
       </c>
       <c r="AC4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AF4">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -2379,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>4.0000000000000002E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="AJ4">
         <v>0</v>
@@ -2420,16 +2447,19 @@
       <c r="BC4">
         <v>0</v>
       </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61">
       <c r="D5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2459,16 +2489,16 @@
         <v>10</v>
       </c>
       <c r="AC5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AF5">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AG5">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -2515,16 +2545,19 @@
       <c r="BC5">
         <v>0</v>
       </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61">
       <c r="D6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2551,13 +2584,13 @@
         <v>10</v>
       </c>
       <c r="AC6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF6">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -2566,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>4.0000000000000002E-4</v>
+        <v>0.0004</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -2607,16 +2640,19 @@
       <c r="BC6">
         <v>0</v>
       </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61">
       <c r="D7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H7">
         <v>3</v>
@@ -2649,13 +2685,13 @@
         <v>10</v>
       </c>
       <c r="AC7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AF7">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -2705,16 +2741,19 @@
       <c r="BC7">
         <v>0</v>
       </c>
+      <c r="BI7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61">
       <c r="D8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -2747,19 +2786,19 @@
         <v>10</v>
       </c>
       <c r="AC8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AF8">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AG8">
         <v>0</v>
       </c>
       <c r="AH8">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -2803,16 +2842,19 @@
       <c r="BC8">
         <v>0</v>
       </c>
+      <c r="BI8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61">
       <c r="D9" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H9">
         <v>5</v>
@@ -2833,7 +2875,7 @@
         <v>10</v>
       </c>
       <c r="AC9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2883,16 +2925,19 @@
       <c r="BC9">
         <v>0</v>
       </c>
+      <c r="BI9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61">
       <c r="D10" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -2913,7 +2958,7 @@
         <v>10</v>
       </c>
       <c r="AC10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2963,16 +3008,19 @@
       <c r="BC10">
         <v>0</v>
       </c>
+      <c r="BI10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61">
       <c r="D11" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -2993,7 +3041,7 @@
         <v>10</v>
       </c>
       <c r="AC11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -3043,16 +3091,19 @@
       <c r="BC11">
         <v>0</v>
       </c>
+      <c r="BI11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61">
       <c r="D12" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -3073,7 +3124,7 @@
         <v>10</v>
       </c>
       <c r="AC12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -3123,16 +3174,19 @@
       <c r="BC12">
         <v>0</v>
       </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61">
       <c r="D13" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -3153,7 +3207,7 @@
         <v>10</v>
       </c>
       <c r="AC13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -3203,16 +3257,19 @@
       <c r="BC13">
         <v>0</v>
       </c>
+      <c r="BI13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61">
       <c r="D14" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -3242,7 +3299,7 @@
         <v>10</v>
       </c>
       <c r="AC14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -3292,16 +3349,19 @@
       <c r="BC14">
         <v>0</v>
       </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61">
       <c r="D15" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H15">
         <v>12</v>
@@ -3319,10 +3379,10 @@
         <v>12</v>
       </c>
       <c r="AC15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD15" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AE15">
         <v>0.05</v>
@@ -3378,16 +3438,19 @@
       <c r="BC15">
         <v>0</v>
       </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61">
       <c r="D16" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="H16">
         <v>12</v>
@@ -3405,10 +3468,10 @@
         <v>12</v>
       </c>
       <c r="AC16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AE16">
         <v>0.05</v>
@@ -3464,16 +3527,19 @@
       <c r="BC16">
         <v>0</v>
       </c>
+      <c r="BI16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61">
       <c r="D17" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H17">
         <v>12</v>
@@ -3491,10 +3557,10 @@
         <v>12</v>
       </c>
       <c r="AC17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD17" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AE17">
         <v>0.05</v>
@@ -3550,16 +3616,19 @@
       <c r="BC17">
         <v>0</v>
       </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61">
       <c r="D18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H18">
         <v>14</v>
@@ -3586,16 +3655,16 @@
         <v>20</v>
       </c>
       <c r="AC18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD18" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AF18">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG18">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -3642,16 +3711,19 @@
       <c r="BC18">
         <v>0</v>
       </c>
+      <c r="BI18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61">
       <c r="D19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="H19">
         <v>14</v>
@@ -3681,13 +3753,13 @@
         <v>20</v>
       </c>
       <c r="AC19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD19" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF19">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -3696,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>8.0000000000000004E-4</v>
+        <v>0.0008</v>
       </c>
       <c r="AJ19">
         <v>0</v>
@@ -3737,16 +3809,19 @@
       <c r="BC19">
         <v>0</v>
       </c>
+      <c r="BI19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61">
       <c r="D20" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="H20">
         <v>14</v>
@@ -3776,13 +3851,13 @@
         <v>20</v>
       </c>
       <c r="AC20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD20" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AF20">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -3791,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>8.0000000000000004E-4</v>
+        <v>0.0008</v>
       </c>
       <c r="AJ20">
         <v>0</v>
@@ -3832,16 +3907,19 @@
       <c r="BC20">
         <v>0</v>
       </c>
+      <c r="BI20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61">
       <c r="D21" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H21">
         <v>14</v>
@@ -3871,19 +3949,19 @@
         <v>20</v>
       </c>
       <c r="AC21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD21" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AF21">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG21">
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AI21">
         <v>0</v>
@@ -3927,16 +4005,19 @@
       <c r="BC21">
         <v>0</v>
       </c>
+      <c r="BI21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61">
       <c r="D22" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H22">
         <v>14</v>
@@ -3966,16 +4047,16 @@
         <v>20</v>
       </c>
       <c r="AC22" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD22" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AF22">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG22">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AH22">
         <v>0</v>
@@ -4022,16 +4103,19 @@
       <c r="BC22">
         <v>0</v>
       </c>
+      <c r="BI22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61">
       <c r="D23" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H23">
         <v>14</v>
@@ -4061,13 +4145,13 @@
         <v>20</v>
       </c>
       <c r="AC23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD23" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AF23">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG23">
         <v>0</v>
@@ -4117,16 +4201,19 @@
       <c r="BC23">
         <v>0</v>
       </c>
+      <c r="BI23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61">
       <c r="D24" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H24">
         <v>18</v>
@@ -4144,10 +4231,10 @@
         <v>20</v>
       </c>
       <c r="AC24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD24" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AE24">
         <v>0.05</v>
@@ -4203,16 +4290,19 @@
       <c r="BC24">
         <v>0</v>
       </c>
+      <c r="BI24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61">
       <c r="D25" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H25">
         <v>18</v>
@@ -4230,10 +4320,10 @@
         <v>20</v>
       </c>
       <c r="AC25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD25" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AE25">
         <v>0.05</v>
@@ -4289,16 +4379,19 @@
       <c r="BC25">
         <v>0</v>
       </c>
+      <c r="BI25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:61">
       <c r="D26" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H26">
         <v>18</v>
@@ -4316,10 +4409,10 @@
         <v>20</v>
       </c>
       <c r="AC26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD26" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE26">
         <v>0.05</v>
@@ -4375,16 +4468,19 @@
       <c r="BC26">
         <v>0</v>
       </c>
+      <c r="BI26">
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:61">
       <c r="D27" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H27">
         <v>18</v>
@@ -4402,10 +4498,10 @@
         <v>20</v>
       </c>
       <c r="AC27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD27" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AE27">
         <v>0.05</v>
@@ -4461,16 +4557,19 @@
       <c r="BC27">
         <v>0</v>
       </c>
+      <c r="BI27">
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61">
       <c r="D28" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H28">
         <v>18</v>
@@ -4488,10 +4587,10 @@
         <v>20</v>
       </c>
       <c r="AC28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD28" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE28">
         <v>0.05</v>
@@ -4547,16 +4646,19 @@
       <c r="BC28">
         <v>0</v>
       </c>
+      <c r="BI28">
+        <v>1</v>
+      </c>
     </row>
-    <row r="29" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:61">
       <c r="D29" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H29">
         <v>18</v>
@@ -4574,10 +4676,10 @@
         <v>20</v>
       </c>
       <c r="AC29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD29" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AE29">
         <v>0.05</v>
@@ -4633,16 +4735,19 @@
       <c r="BC29">
         <v>0</v>
       </c>
+      <c r="BI29">
+        <v>1</v>
+      </c>
     </row>
-    <row r="30" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:61">
       <c r="D30" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H30">
         <v>18</v>
@@ -4681,7 +4786,7 @@
         <v>20</v>
       </c>
       <c r="AC30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -4731,16 +4836,19 @@
       <c r="BC30">
         <v>0</v>
       </c>
+      <c r="BI30">
+        <v>1</v>
+      </c>
     </row>
-    <row r="31" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:61">
       <c r="D31" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="H31">
         <v>20</v>
@@ -4770,10 +4878,10 @@
         <v>20</v>
       </c>
       <c r="AC31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD31" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF31">
         <v>0.01</v>
@@ -4785,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AJ31">
         <v>0</v>
@@ -4826,16 +4934,19 @@
       <c r="BC31">
         <v>0</v>
       </c>
+      <c r="BI31">
+        <v>1</v>
+      </c>
     </row>
-    <row r="32" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:61">
       <c r="D32" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H32">
         <v>20</v>
@@ -4868,10 +4979,10 @@
         <v>20</v>
       </c>
       <c r="AC32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD32" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AF32">
         <v>0.01</v>
@@ -4924,16 +5035,19 @@
       <c r="BC32">
         <v>0</v>
       </c>
+      <c r="BI32">
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:61">
       <c r="D33" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H33">
         <v>20</v>
@@ -4963,10 +5077,10 @@
         <v>20</v>
       </c>
       <c r="AC33" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD33" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AF33">
         <v>0.01</v>
@@ -4978,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AJ33">
         <v>0</v>
@@ -5019,16 +5133,19 @@
       <c r="BC33">
         <v>0</v>
       </c>
+      <c r="BI33">
+        <v>1</v>
+      </c>
     </row>
-    <row r="34" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:61">
       <c r="D34" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="H34">
         <v>20</v>
@@ -5058,10 +5175,10 @@
         <v>20</v>
       </c>
       <c r="AC34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD34" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AF34">
         <v>0.01</v>
@@ -5114,16 +5231,19 @@
       <c r="BC34">
         <v>0</v>
       </c>
+      <c r="BI34">
+        <v>1</v>
+      </c>
     </row>
-    <row r="35" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:61">
       <c r="D35" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H35">
         <v>20</v>
@@ -5153,10 +5273,10 @@
         <v>20</v>
       </c>
       <c r="AC35" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD35" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AF35">
         <v>0.01</v>
@@ -5209,16 +5329,19 @@
       <c r="BC35">
         <v>0</v>
       </c>
+      <c r="BI35">
+        <v>1</v>
+      </c>
     </row>
-    <row r="36" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:61">
       <c r="D36" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H36">
         <v>20</v>
@@ -5248,10 +5371,10 @@
         <v>20</v>
       </c>
       <c r="AC36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD36" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AF36">
         <v>0.01</v>
@@ -5304,16 +5427,19 @@
       <c r="BC36">
         <v>0</v>
       </c>
+      <c r="BI36">
+        <v>1</v>
+      </c>
     </row>
-    <row r="37" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:61">
       <c r="D37" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="H37">
         <v>22</v>
@@ -5334,7 +5460,7 @@
         <v>25</v>
       </c>
       <c r="AC37" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -5384,16 +5510,19 @@
       <c r="BC37">
         <v>0</v>
       </c>
+      <c r="BI37">
+        <v>1</v>
+      </c>
     </row>
-    <row r="38" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:61">
       <c r="D38" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H38">
         <v>22</v>
@@ -5414,7 +5543,7 @@
         <v>25</v>
       </c>
       <c r="AC38" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -5464,16 +5593,19 @@
       <c r="BC38">
         <v>0</v>
       </c>
+      <c r="BI38">
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:61">
       <c r="D39" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H39">
         <v>22</v>
@@ -5494,7 +5626,7 @@
         <v>25</v>
       </c>
       <c r="AC39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -5544,16 +5676,19 @@
       <c r="BC39">
         <v>0</v>
       </c>
+      <c r="BI39">
+        <v>1</v>
+      </c>
     </row>
-    <row r="40" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:61">
       <c r="D40" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H40">
         <v>22</v>
@@ -5574,7 +5709,7 @@
         <v>25</v>
       </c>
       <c r="AC40" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -5624,16 +5759,19 @@
       <c r="BC40">
         <v>0</v>
       </c>
+      <c r="BI40">
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:61">
       <c r="D41" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F41" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H41">
         <v>22</v>
@@ -5654,7 +5792,7 @@
         <v>25</v>
       </c>
       <c r="AC41" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -5704,16 +5842,19 @@
       <c r="BC41">
         <v>0</v>
       </c>
+      <c r="BI41">
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:61">
       <c r="D42" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F42" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="H42">
         <v>22</v>
@@ -5740,7 +5881,7 @@
         <v>20</v>
       </c>
       <c r="AC42" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -5781,16 +5922,19 @@
       <c r="BC42">
         <v>0</v>
       </c>
+      <c r="BI42">
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:61">
       <c r="D43" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F43" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H43">
         <v>22</v>
@@ -5820,7 +5964,7 @@
         <v>20</v>
       </c>
       <c r="AC43" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -5870,16 +6014,19 @@
       <c r="BC43">
         <v>0</v>
       </c>
+      <c r="BI43">
+        <v>1</v>
+      </c>
     </row>
-    <row r="44" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:61">
       <c r="D44" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H44">
         <v>35</v>
@@ -5897,10 +6044,10 @@
         <v>30</v>
       </c>
       <c r="AC44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD44" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AE44">
         <v>0.08</v>
@@ -5956,16 +6103,19 @@
       <c r="BC44">
         <v>0</v>
       </c>
+      <c r="BI44">
+        <v>2</v>
+      </c>
     </row>
-    <row r="45" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:61">
       <c r="D45" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H45">
         <v>35</v>
@@ -5983,10 +6133,10 @@
         <v>30</v>
       </c>
       <c r="AC45" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD45" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AE45">
         <v>0.08</v>
@@ -6042,16 +6192,19 @@
       <c r="BC45">
         <v>0</v>
       </c>
+      <c r="BI45">
+        <v>2</v>
+      </c>
     </row>
-    <row r="46" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:61">
       <c r="D46" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="H46">
         <v>40</v>
@@ -6078,10 +6231,10 @@
         <v>40</v>
       </c>
       <c r="AC46" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD46" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AF46">
         <v>0.05</v>
@@ -6134,16 +6287,19 @@
       <c r="BC46">
         <v>0</v>
       </c>
+      <c r="BI46">
+        <v>2</v>
+      </c>
     </row>
-    <row r="47" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:61">
       <c r="D47" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H47">
         <v>40</v>
@@ -6173,10 +6329,10 @@
         <v>40</v>
       </c>
       <c r="AC47" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD47" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AF47">
         <v>0.05</v>
@@ -6188,7 +6344,7 @@
         <v>0</v>
       </c>
       <c r="AI47">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AJ47">
         <v>0</v>
@@ -6229,16 +6385,19 @@
       <c r="BC47">
         <v>0</v>
       </c>
+      <c r="BI47">
+        <v>2</v>
+      </c>
     </row>
-    <row r="48" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:61">
       <c r="D48" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="H48">
         <v>40</v>
@@ -6268,10 +6427,10 @@
         <v>40</v>
       </c>
       <c r="AC48" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD48" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AF48">
         <v>0.05</v>
@@ -6324,16 +6483,19 @@
       <c r="BC48">
         <v>0</v>
       </c>
+      <c r="BI48">
+        <v>2</v>
+      </c>
     </row>
-    <row r="49" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:61">
       <c r="D49" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H49">
         <v>40</v>
@@ -6363,10 +6525,10 @@
         <v>40</v>
       </c>
       <c r="AC49" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD49" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AF49">
         <v>0.05</v>
@@ -6419,16 +6581,19 @@
       <c r="BC49">
         <v>0</v>
       </c>
+      <c r="BI49">
+        <v>2</v>
+      </c>
     </row>
-    <row r="50" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:61">
       <c r="D50" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F50" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H50">
         <v>40</v>
@@ -6458,10 +6623,10 @@
         <v>40</v>
       </c>
       <c r="AC50" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD50" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AF50">
         <v>0.05</v>
@@ -6514,16 +6679,19 @@
       <c r="BC50">
         <v>0</v>
       </c>
+      <c r="BI50">
+        <v>2</v>
+      </c>
     </row>
-    <row r="51" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:61">
       <c r="D51" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F51" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H51">
         <v>50</v>
@@ -6541,10 +6709,10 @@
         <v>40</v>
       </c>
       <c r="AC51" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD51" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AE51">
         <v>0.08</v>
@@ -6600,16 +6768,19 @@
       <c r="BC51">
         <v>0</v>
       </c>
+      <c r="BI51">
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:61">
       <c r="D52" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H52">
         <v>50</v>
@@ -6627,10 +6798,10 @@
         <v>40</v>
       </c>
       <c r="AC52" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD52" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AE52">
         <v>0.08</v>
@@ -6677,16 +6848,19 @@
       <c r="BC52">
         <v>0</v>
       </c>
+      <c r="BI52">
+        <v>2</v>
+      </c>
     </row>
-    <row r="53" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:61">
       <c r="D53" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="H53">
         <v>50</v>
@@ -6704,10 +6878,10 @@
         <v>60</v>
       </c>
       <c r="AC53" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD53" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE53">
         <v>0.08</v>
@@ -6763,16 +6937,19 @@
       <c r="BC53">
         <v>0</v>
       </c>
+      <c r="BI53">
+        <v>3</v>
+      </c>
     </row>
-    <row r="54" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:61">
       <c r="D54" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H54">
         <v>50</v>
@@ -6790,10 +6967,10 @@
         <v>40</v>
       </c>
       <c r="AC54" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD54" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AE54">
         <v>0.08</v>
@@ -6849,16 +7026,19 @@
       <c r="BC54">
         <v>0</v>
       </c>
+      <c r="BI54">
+        <v>2</v>
+      </c>
     </row>
-    <row r="55" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:61">
       <c r="D55" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="H55">
         <v>50</v>
@@ -6876,10 +7056,10 @@
         <v>40</v>
       </c>
       <c r="AC55" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD55" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE55">
         <v>0.08</v>
@@ -6935,16 +7115,19 @@
       <c r="BC55">
         <v>0</v>
       </c>
+      <c r="BI55">
+        <v>2</v>
+      </c>
     </row>
-    <row r="56" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:61">
       <c r="D56" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F56" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H56">
         <v>50</v>
@@ -6962,10 +7145,10 @@
         <v>40</v>
       </c>
       <c r="AC56" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD56" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AE56">
         <v>0.08</v>
@@ -7021,16 +7204,19 @@
       <c r="BC56">
         <v>0</v>
       </c>
+      <c r="BI56">
+        <v>2</v>
+      </c>
     </row>
-    <row r="57" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:61">
       <c r="D57" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F57" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="H57">
         <v>60</v>
@@ -7060,10 +7246,10 @@
         <v>40</v>
       </c>
       <c r="AC57" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD57" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF57">
         <v>0.08</v>
@@ -7075,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="AI57">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AJ57">
         <v>0</v>
@@ -7116,16 +7302,19 @@
       <c r="BC57">
         <v>0</v>
       </c>
+      <c r="BI57">
+        <v>2</v>
+      </c>
     </row>
-    <row r="58" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:61">
       <c r="D58" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F58" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H58">
         <v>60</v>
@@ -7158,10 +7347,10 @@
         <v>40</v>
       </c>
       <c r="AC58" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD58" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AF58">
         <v>0.08</v>
@@ -7214,16 +7403,19 @@
       <c r="BC58">
         <v>0</v>
       </c>
+      <c r="BI58">
+        <v>2</v>
+      </c>
     </row>
-    <row r="59" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:61">
       <c r="D59" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F59" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="H59">
         <v>60</v>
@@ -7253,10 +7445,10 @@
         <v>40</v>
       </c>
       <c r="AC59" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD59" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AF59">
         <v>0.08</v>
@@ -7268,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="AI59">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AJ59">
         <v>0</v>
@@ -7309,16 +7501,19 @@
       <c r="BC59">
         <v>0</v>
       </c>
+      <c r="BI59">
+        <v>2</v>
+      </c>
     </row>
-    <row r="60" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:61">
       <c r="D60" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F60" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H60">
         <v>60</v>
@@ -7348,10 +7543,10 @@
         <v>40</v>
       </c>
       <c r="AC60" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD60" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AF60">
         <v>0.08</v>
@@ -7404,16 +7599,19 @@
       <c r="BC60">
         <v>0</v>
       </c>
+      <c r="BI60">
+        <v>2</v>
+      </c>
     </row>
-    <row r="61" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:61">
       <c r="D61" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H61">
         <v>60</v>
@@ -7443,7 +7641,7 @@
         <v>40</v>
       </c>
       <c r="AC61" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -7493,16 +7691,19 @@
       <c r="BC61">
         <v>0</v>
       </c>
+      <c r="BI61">
+        <v>2</v>
+      </c>
     </row>
-    <row r="62" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:61">
       <c r="D62" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E62" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F62" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H62">
         <v>60</v>
@@ -7532,7 +7733,7 @@
         <v>40</v>
       </c>
       <c r="AC62" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -7582,16 +7783,19 @@
       <c r="BC62">
         <v>0</v>
       </c>
+      <c r="BI62">
+        <v>2</v>
+      </c>
     </row>
-    <row r="63" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:61">
       <c r="D63" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E63" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F63" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H63">
         <v>60</v>
@@ -7621,10 +7825,10 @@
         <v>40</v>
       </c>
       <c r="AC63" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD63" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AF63">
         <v>0.08</v>
@@ -7677,16 +7881,19 @@
       <c r="BC63">
         <v>0</v>
       </c>
+      <c r="BI63">
+        <v>2</v>
+      </c>
     </row>
-    <row r="64" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:61">
       <c r="D64" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E64" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F64" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H64">
         <v>75</v>
@@ -7725,7 +7932,7 @@
         <v>50</v>
       </c>
       <c r="AC64" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -7775,16 +7982,19 @@
       <c r="BC64">
         <v>0</v>
       </c>
+      <c r="BI64">
+        <v>3</v>
+      </c>
     </row>
-    <row r="65" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:61">
       <c r="D65" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E65" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F65" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H65">
         <v>75</v>
@@ -7805,7 +8015,7 @@
         <v>50</v>
       </c>
       <c r="AC65" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -7855,16 +8065,19 @@
       <c r="BC65">
         <v>0</v>
       </c>
+      <c r="BI65">
+        <v>3</v>
+      </c>
     </row>
-    <row r="66" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:61">
       <c r="D66" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E66" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F66" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="H66">
         <v>75</v>
@@ -7885,7 +8098,7 @@
         <v>50</v>
       </c>
       <c r="AC66" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -7935,16 +8148,19 @@
       <c r="BC66">
         <v>0</v>
       </c>
+      <c r="BI66">
+        <v>3</v>
+      </c>
     </row>
-    <row r="67" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:61">
       <c r="D67" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E67" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H67">
         <v>75</v>
@@ -7965,7 +8181,7 @@
         <v>50</v>
       </c>
       <c r="AC67" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -8015,16 +8231,19 @@
       <c r="BC67">
         <v>0</v>
       </c>
+      <c r="BI67">
+        <v>3</v>
+      </c>
     </row>
-    <row r="68" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:61">
       <c r="D68" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E68" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H68">
         <v>75</v>
@@ -8045,7 +8264,7 @@
         <v>50</v>
       </c>
       <c r="AC68" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -8095,16 +8314,19 @@
       <c r="BC68">
         <v>0</v>
       </c>
+      <c r="BI68">
+        <v>3</v>
+      </c>
     </row>
-    <row r="69" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:61">
       <c r="D69" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E69" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F69" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H69">
         <v>75</v>
@@ -8125,7 +8347,7 @@
         <v>50</v>
       </c>
       <c r="AC69" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -8175,16 +8397,19 @@
       <c r="BC69">
         <v>0</v>
       </c>
+      <c r="BI69">
+        <v>3</v>
+      </c>
     </row>
-    <row r="70" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:61">
       <c r="D70" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E70" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F70" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H70">
         <v>100</v>
@@ -8208,10 +8433,10 @@
         <v>60</v>
       </c>
       <c r="AC70" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD70" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AF70">
         <v>0.12</v>
@@ -8264,16 +8489,19 @@
       <c r="BC70">
         <v>0</v>
       </c>
+      <c r="BI70">
+        <v>3</v>
+      </c>
     </row>
-    <row r="71" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:61">
       <c r="D71" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E71" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F71" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H71">
         <v>100</v>
@@ -8303,10 +8531,10 @@
         <v>60</v>
       </c>
       <c r="AC71" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD71" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF71">
         <v>0.12</v>
@@ -8318,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AI71">
-        <v>1.2E-2</v>
+        <v>0.012</v>
       </c>
       <c r="AJ71">
         <v>0</v>
@@ -8359,16 +8587,19 @@
       <c r="BC71">
         <v>0</v>
       </c>
+      <c r="BI71">
+        <v>3</v>
+      </c>
     </row>
-    <row r="72" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:61">
       <c r="D72" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E72" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F72" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H72">
         <v>100</v>
@@ -8401,10 +8632,10 @@
         <v>60</v>
       </c>
       <c r="AC72" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD72" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AF72">
         <v>0.12</v>
@@ -8457,16 +8688,19 @@
       <c r="BC72">
         <v>0</v>
       </c>
+      <c r="BI72">
+        <v>3</v>
+      </c>
     </row>
-    <row r="73" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:61">
       <c r="D73" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E73" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F73" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H73">
         <v>100</v>
@@ -8496,10 +8730,10 @@
         <v>60</v>
       </c>
       <c r="AC73" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD73" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AF73">
         <v>0.12</v>
@@ -8511,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="AI73">
-        <v>1.2E-2</v>
+        <v>0.012</v>
       </c>
       <c r="AJ73">
         <v>0</v>
@@ -8552,16 +8786,19 @@
       <c r="BC73">
         <v>0</v>
       </c>
+      <c r="BI73">
+        <v>3</v>
+      </c>
     </row>
-    <row r="74" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:61">
       <c r="D74" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E74" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F74" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="H74">
         <v>100</v>
@@ -8591,10 +8828,10 @@
         <v>60</v>
       </c>
       <c r="AC74" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD74" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AF74">
         <v>0.12</v>
@@ -8647,16 +8884,19 @@
       <c r="BC74">
         <v>0</v>
       </c>
+      <c r="BI74">
+        <v>3</v>
+      </c>
     </row>
-    <row r="75" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:61">
       <c r="D75" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E75" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F75" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H75">
         <v>100</v>
@@ -8686,10 +8926,10 @@
         <v>60</v>
       </c>
       <c r="AC75" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD75" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AF75">
         <v>0.12</v>
@@ -8742,16 +8982,19 @@
       <c r="BC75">
         <v>0</v>
       </c>
+      <c r="BI75">
+        <v>3</v>
+      </c>
     </row>
-    <row r="76" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:61">
       <c r="D76" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E76" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F76" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H76">
         <v>150</v>
@@ -8769,10 +9012,10 @@
         <v>60</v>
       </c>
       <c r="AC76" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD76" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AE76">
         <v>0.1</v>
@@ -8828,16 +9071,19 @@
       <c r="BC76">
         <v>0</v>
       </c>
+      <c r="BI76">
+        <v>3</v>
+      </c>
     </row>
-    <row r="77" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:61">
       <c r="D77" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E77" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F77" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H77">
         <v>150</v>
@@ -8855,10 +9101,10 @@
         <v>60</v>
       </c>
       <c r="AC77" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD77" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AE77">
         <v>0.1</v>
@@ -8914,16 +9160,19 @@
       <c r="BC77">
         <v>0</v>
       </c>
+      <c r="BI77">
+        <v>3</v>
+      </c>
     </row>
-    <row r="78" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:61">
       <c r="D78" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E78" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F78" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H78">
         <v>150</v>
@@ -8941,10 +9190,10 @@
         <v>60</v>
       </c>
       <c r="AC78" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD78" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AE78">
         <v>0.1</v>
@@ -9000,16 +9249,19 @@
       <c r="BC78">
         <v>0</v>
       </c>
+      <c r="BI78">
+        <v>3</v>
+      </c>
     </row>
-    <row r="79" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:61">
       <c r="D79" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E79" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F79" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="H79">
         <v>300</v>
@@ -9027,10 +9279,10 @@
         <v>80</v>
       </c>
       <c r="AC79" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD79" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AE79">
         <v>0.1</v>
@@ -9086,16 +9338,19 @@
       <c r="BC79">
         <v>0</v>
       </c>
+      <c r="BI79">
+        <v>4</v>
+      </c>
     </row>
-    <row r="80" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:61">
       <c r="D80" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E80" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F80" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H80">
         <v>300</v>
@@ -9113,10 +9368,10 @@
         <v>70</v>
       </c>
       <c r="AC80" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD80" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AE80">
         <v>0.1</v>
@@ -9172,16 +9427,19 @@
       <c r="BC80">
         <v>0</v>
       </c>
+      <c r="BI80">
+        <v>4</v>
+      </c>
     </row>
-    <row r="81" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:61">
       <c r="D81" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="E81" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F81" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H81">
         <v>300</v>
@@ -9199,10 +9457,10 @@
         <v>60</v>
       </c>
       <c r="AC81" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD81" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE81">
         <v>0.1</v>
@@ -9258,16 +9516,19 @@
       <c r="BC81">
         <v>0</v>
       </c>
+      <c r="BI81">
+        <v>3</v>
+      </c>
     </row>
-    <row r="82" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:61">
       <c r="D82" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E82" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F82" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H82">
         <v>300</v>
@@ -9285,10 +9546,10 @@
         <v>60</v>
       </c>
       <c r="AC82" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD82" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE82">
         <v>0.1</v>
@@ -9344,16 +9605,19 @@
       <c r="BC82">
         <v>0</v>
       </c>
+      <c r="BI82">
+        <v>3</v>
+      </c>
     </row>
-    <row r="83" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:61">
       <c r="D83" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="E83" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F83" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="H83">
         <v>300</v>
@@ -9371,10 +9635,10 @@
         <v>60</v>
       </c>
       <c r="AC83" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD83" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AE83">
         <v>0.1</v>
@@ -9430,16 +9694,19 @@
       <c r="BC83">
         <v>0</v>
       </c>
+      <c r="BI83">
+        <v>3</v>
+      </c>
     </row>
-    <row r="84" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:61">
       <c r="D84" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E84" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F84" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H84">
         <v>350</v>
@@ -9478,7 +9745,7 @@
         <v>80</v>
       </c>
       <c r="AC84" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF84">
         <v>0</v>
@@ -9528,16 +9795,19 @@
       <c r="BC84">
         <v>0</v>
       </c>
+      <c r="BI84">
+        <v>4</v>
+      </c>
     </row>
-    <row r="85" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:61">
       <c r="D85" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E85" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F85" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H85">
         <v>350</v>
@@ -9546,7 +9816,7 @@
         <v>260000</v>
       </c>
       <c r="Q85">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y85">
         <v>1</v>
@@ -9558,7 +9828,7 @@
         <v>80</v>
       </c>
       <c r="AC85" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF85">
         <v>0</v>
@@ -9608,16 +9878,19 @@
       <c r="BC85">
         <v>0</v>
       </c>
+      <c r="BI85">
+        <v>4</v>
+      </c>
     </row>
-    <row r="86" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:61">
       <c r="D86" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="E86" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F86" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H86">
         <v>350</v>
@@ -9626,7 +9899,7 @@
         <v>260000</v>
       </c>
       <c r="S86">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y86">
         <v>1</v>
@@ -9638,7 +9911,7 @@
         <v>80</v>
       </c>
       <c r="AC86" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF86">
         <v>0</v>
@@ -9688,16 +9961,19 @@
       <c r="BC86">
         <v>0</v>
       </c>
+      <c r="BI86">
+        <v>4</v>
+      </c>
     </row>
-    <row r="87" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:61">
       <c r="D87" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="E87" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F87" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H87">
         <v>350</v>
@@ -9706,7 +9982,7 @@
         <v>260000</v>
       </c>
       <c r="U87">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y87">
         <v>1</v>
@@ -9718,7 +9994,7 @@
         <v>80</v>
       </c>
       <c r="AC87" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF87">
         <v>0</v>
@@ -9768,16 +10044,19 @@
       <c r="BC87">
         <v>0</v>
       </c>
+      <c r="BI87">
+        <v>4</v>
+      </c>
     </row>
-    <row r="88" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:61">
       <c r="D88" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E88" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F88" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H88">
         <v>350</v>
@@ -9786,7 +10065,7 @@
         <v>260000</v>
       </c>
       <c r="T88">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y88">
         <v>1</v>
@@ -9798,7 +10077,7 @@
         <v>80</v>
       </c>
       <c r="AC88" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF88">
         <v>0</v>
@@ -9848,16 +10127,19 @@
       <c r="BC88">
         <v>0</v>
       </c>
+      <c r="BI88">
+        <v>4</v>
+      </c>
     </row>
-    <row r="89" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:61">
       <c r="D89" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="E89" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F89" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H89">
         <v>350</v>
@@ -9875,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="W89">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Y89">
         <v>1</v>
@@ -9887,7 +10169,7 @@
         <v>80</v>
       </c>
       <c r="AC89" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF89">
         <v>0</v>
@@ -9937,16 +10219,19 @@
       <c r="BC89">
         <v>0</v>
       </c>
+      <c r="BI89">
+        <v>4</v>
+      </c>
     </row>
-    <row r="90" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:61">
       <c r="D90" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E90" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F90" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="H90">
         <v>350</v>
@@ -9961,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="V90">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="W90">
         <v>0</v>
@@ -9976,7 +10261,7 @@
         <v>80</v>
       </c>
       <c r="AC90" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF90">
         <v>0</v>
@@ -10026,16 +10311,19 @@
       <c r="BC90">
         <v>0</v>
       </c>
+      <c r="BI90">
+        <v>4</v>
+      </c>
     </row>
-    <row r="91" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:61">
       <c r="D91" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E91" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F91" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H91">
         <v>450</v>
@@ -10053,10 +10341,10 @@
         <v>90</v>
       </c>
       <c r="AC91" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD91" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AE91">
         <v>0.12</v>
@@ -10112,16 +10400,19 @@
       <c r="BC91">
         <v>0</v>
       </c>
+      <c r="BI91">
+        <v>5</v>
+      </c>
     </row>
-    <row r="92" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:61">
       <c r="D92" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E92" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F92" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H92">
         <v>450</v>
@@ -10139,10 +10430,10 @@
         <v>90</v>
       </c>
       <c r="AC92" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD92" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AE92">
         <v>0.12</v>
@@ -10198,16 +10489,19 @@
       <c r="BC92">
         <v>0</v>
       </c>
+      <c r="BI92">
+        <v>5</v>
+      </c>
     </row>
-    <row r="93" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:61">
       <c r="D93" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E93" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F93" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H93">
         <v>450</v>
@@ -10225,10 +10519,10 @@
         <v>90</v>
       </c>
       <c r="AC93" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD93" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AE93">
         <v>0.12</v>
@@ -10284,16 +10578,19 @@
       <c r="BC93">
         <v>0</v>
       </c>
+      <c r="BI93">
+        <v>5</v>
+      </c>
     </row>
-    <row r="94" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:61">
       <c r="D94" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E94" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F94" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H94">
         <v>525</v>
@@ -10311,10 +10608,10 @@
         <v>100</v>
       </c>
       <c r="AC94" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD94" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AE94">
         <v>0.12</v>
@@ -10370,16 +10667,19 @@
       <c r="BC94">
         <v>0</v>
       </c>
+      <c r="BI94">
+        <v>5</v>
+      </c>
     </row>
-    <row r="95" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:61">
       <c r="D95" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E95" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F95" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H95">
         <v>525</v>
@@ -10397,10 +10697,10 @@
         <v>100</v>
       </c>
       <c r="AC95" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD95" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AE95">
         <v>0.12</v>
@@ -10456,16 +10756,19 @@
       <c r="BC95">
         <v>0</v>
       </c>
+      <c r="BI95">
+        <v>5</v>
+      </c>
     </row>
-    <row r="96" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:61">
       <c r="D96" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E96" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F96" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H96">
         <v>525</v>
@@ -10483,10 +10786,10 @@
         <v>100</v>
       </c>
       <c r="AC96" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD96" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE96">
         <v>0.12</v>
@@ -10542,16 +10845,19 @@
       <c r="BC96">
         <v>0</v>
       </c>
+      <c r="BI96">
+        <v>5</v>
+      </c>
     </row>
-    <row r="97" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:61">
       <c r="D97" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E97" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F97" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H97">
         <v>525</v>
@@ -10569,10 +10875,10 @@
         <v>100</v>
       </c>
       <c r="AC97" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD97" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AE97">
         <v>0.12</v>
@@ -10628,16 +10934,19 @@
       <c r="BC97">
         <v>0</v>
       </c>
+      <c r="BI97">
+        <v>5</v>
+      </c>
     </row>
-    <row r="98" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:61">
       <c r="D98" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E98" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F98" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="H98">
         <v>525</v>
@@ -10655,10 +10964,10 @@
         <v>100</v>
       </c>
       <c r="AC98" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD98" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE98">
         <v>0.12</v>
@@ -10714,16 +11023,19 @@
       <c r="BC98">
         <v>0</v>
       </c>
+      <c r="BI98">
+        <v>5</v>
+      </c>
     </row>
-    <row r="99" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:61">
       <c r="D99" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E99" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F99" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H99">
         <v>525</v>
@@ -10741,10 +11053,10 @@
         <v>100</v>
       </c>
       <c r="AC99" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD99" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AE99">
         <v>0.12</v>
@@ -10800,16 +11112,19 @@
       <c r="BC99">
         <v>0</v>
       </c>
+      <c r="BI99">
+        <v>5</v>
+      </c>
     </row>
-    <row r="100" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:61">
       <c r="D100" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E100" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F100" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -10833,10 +11148,10 @@
         <v>100</v>
       </c>
       <c r="AC100" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD100" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF100">
         <v>0.21</v>
@@ -10848,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="AI100">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="AJ100">
         <v>0</v>
@@ -10889,16 +11204,19 @@
       <c r="BC100">
         <v>0</v>
       </c>
+      <c r="BI100">
+        <v>5</v>
+      </c>
     </row>
-    <row r="101" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:61">
       <c r="D101" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E101" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F101" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -10925,10 +11243,10 @@
         <v>100</v>
       </c>
       <c r="AC101" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD101" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AF101">
         <v>0.21</v>
@@ -10981,16 +11299,19 @@
       <c r="BC101">
         <v>0</v>
       </c>
+      <c r="BI101">
+        <v>5</v>
+      </c>
     </row>
-    <row r="102" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:61">
       <c r="D102" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F102" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -11014,10 +11335,10 @@
         <v>100</v>
       </c>
       <c r="AC102" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD102" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AF102">
         <v>0.21</v>
@@ -11070,16 +11391,19 @@
       <c r="BC102">
         <v>0</v>
       </c>
+      <c r="BI102">
+        <v>5</v>
+      </c>
     </row>
-    <row r="103" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:61">
       <c r="D103" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E103" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F103" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -11109,10 +11433,10 @@
         <v>100</v>
       </c>
       <c r="AC103" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD103" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AF103">
         <v>0.21</v>
@@ -11124,7 +11448,7 @@
         <v>0</v>
       </c>
       <c r="AI103">
-        <v>2.1000000000000001E-2</v>
+        <v>0.021</v>
       </c>
       <c r="AJ103">
         <v>0</v>
@@ -11165,16 +11489,19 @@
       <c r="BC103">
         <v>0</v>
       </c>
+      <c r="BI103">
+        <v>5</v>
+      </c>
     </row>
-    <row r="104" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:61">
       <c r="D104" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E104" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F104" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -11204,10 +11531,10 @@
         <v>100</v>
       </c>
       <c r="AC104" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD104" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AF104">
         <v>0.21</v>
@@ -11260,16 +11587,19 @@
       <c r="BC104">
         <v>0</v>
       </c>
+      <c r="BI104">
+        <v>5</v>
+      </c>
     </row>
-    <row r="105" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:61">
       <c r="D105" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E105" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F105" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H105">
         <v>700</v>
@@ -11308,7 +11638,7 @@
         <v>170</v>
       </c>
       <c r="AC105" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF105">
         <v>0</v>
@@ -11358,16 +11688,19 @@
       <c r="BC105">
         <v>0</v>
       </c>
+      <c r="BI105">
+        <v>9</v>
+      </c>
     </row>
-    <row r="106" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:61">
       <c r="D106" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E106" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F106" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H106">
         <v>730</v>
@@ -11388,7 +11721,7 @@
         <v>170</v>
       </c>
       <c r="AC106" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF106">
         <v>0</v>
@@ -11438,16 +11771,19 @@
       <c r="BC106">
         <v>0</v>
       </c>
+      <c r="BI106">
+        <v>9</v>
+      </c>
     </row>
-    <row r="107" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:61">
       <c r="D107" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E107" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F107" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="H107">
         <v>730</v>
@@ -11468,7 +11804,7 @@
         <v>170</v>
       </c>
       <c r="AC107" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF107">
         <v>0</v>
@@ -11518,16 +11854,19 @@
       <c r="BC107">
         <v>0</v>
       </c>
+      <c r="BI107">
+        <v>9</v>
+      </c>
     </row>
-    <row r="108" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:61">
       <c r="D108" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E108" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F108" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H108">
         <v>730</v>
@@ -11548,7 +11887,7 @@
         <v>170</v>
       </c>
       <c r="AC108" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF108">
         <v>0</v>
@@ -11598,16 +11937,19 @@
       <c r="BC108">
         <v>0</v>
       </c>
+      <c r="BI108">
+        <v>9</v>
+      </c>
     </row>
-    <row r="109" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:61">
       <c r="D109" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E109" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F109" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H109">
         <v>730</v>
@@ -11628,7 +11970,7 @@
         <v>170</v>
       </c>
       <c r="AC109" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF109">
         <v>0</v>
@@ -11678,16 +12020,19 @@
       <c r="BC109">
         <v>0</v>
       </c>
+      <c r="BI109">
+        <v>9</v>
+      </c>
     </row>
-    <row r="110" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:61">
       <c r="D110" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E110" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F110" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H110">
         <v>730</v>
@@ -11708,7 +12053,7 @@
         <v>170</v>
       </c>
       <c r="AC110" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF110">
         <v>0</v>
@@ -11758,16 +12103,19 @@
       <c r="BC110">
         <v>0</v>
       </c>
+      <c r="BI110">
+        <v>9</v>
+      </c>
     </row>
-    <row r="111" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:61">
       <c r="D111" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E111" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F111" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H111">
         <v>750</v>
@@ -11797,7 +12145,7 @@
         <v>170</v>
       </c>
       <c r="AC111" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF111">
         <v>0</v>
@@ -11847,16 +12195,19 @@
       <c r="BC111">
         <v>0</v>
       </c>
+      <c r="BI111">
+        <v>9</v>
+      </c>
     </row>
-    <row r="112" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:61">
       <c r="D112" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E112" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F112" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H112">
         <v>750</v>
@@ -11886,7 +12237,7 @@
         <v>170</v>
       </c>
       <c r="AC112" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF112">
         <v>0</v>
@@ -11936,16 +12287,19 @@
       <c r="BC112">
         <v>0</v>
       </c>
+      <c r="BI112">
+        <v>9</v>
+      </c>
     </row>
-    <row r="113" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:61">
       <c r="D113" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E113" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F113" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H113">
         <v>750</v>
@@ -11963,10 +12317,10 @@
         <v>170</v>
       </c>
       <c r="AC113" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD113" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AE113">
         <v>0.18</v>
@@ -12022,16 +12376,19 @@
       <c r="BC113">
         <v>0</v>
       </c>
+      <c r="BI113">
+        <v>9</v>
+      </c>
     </row>
-    <row r="114" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:61">
       <c r="D114" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E114" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F114" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H114">
         <v>750</v>
@@ -12049,10 +12406,10 @@
         <v>170</v>
       </c>
       <c r="AC114" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD114" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AE114">
         <v>0.18</v>
@@ -12108,16 +12465,19 @@
       <c r="BC114">
         <v>0</v>
       </c>
+      <c r="BI114">
+        <v>9</v>
+      </c>
     </row>
-    <row r="115" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:61">
       <c r="D115" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E115" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F115" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H115">
         <v>750</v>
@@ -12135,10 +12495,10 @@
         <v>170</v>
       </c>
       <c r="AC115" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD115" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AE115">
         <v>0.18</v>
@@ -12194,16 +12554,19 @@
       <c r="BC115">
         <v>0</v>
       </c>
+      <c r="BI115">
+        <v>9</v>
+      </c>
     </row>
-    <row r="116" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:61">
       <c r="D116" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E116" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F116" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H116">
         <v>780</v>
@@ -12227,10 +12590,10 @@
         <v>170</v>
       </c>
       <c r="AC116" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD116" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF116">
         <v>0.26</v>
@@ -12242,7 +12605,7 @@
         <v>0</v>
       </c>
       <c r="AI116">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="AJ116">
         <v>0</v>
@@ -12283,16 +12646,19 @@
       <c r="BC116">
         <v>0</v>
       </c>
+      <c r="BI116">
+        <v>9</v>
+      </c>
     </row>
-    <row r="117" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:61">
       <c r="D117" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E117" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F117" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="H117">
         <v>780</v>
@@ -12319,10 +12685,10 @@
         <v>170</v>
       </c>
       <c r="AC117" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD117" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AF117">
         <v>0.26</v>
@@ -12375,16 +12741,19 @@
       <c r="BC117">
         <v>0</v>
       </c>
+      <c r="BI117">
+        <v>9</v>
+      </c>
     </row>
-    <row r="118" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:61">
       <c r="D118" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E118" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F118" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H118">
         <v>780</v>
@@ -12408,10 +12777,10 @@
         <v>170</v>
       </c>
       <c r="AC118" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD118" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AF118">
         <v>0.26</v>
@@ -12423,7 +12792,7 @@
         <v>0</v>
       </c>
       <c r="AI118">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="AJ118">
         <v>0</v>
@@ -12464,16 +12833,19 @@
       <c r="BC118">
         <v>0</v>
       </c>
+      <c r="BI118">
+        <v>9</v>
+      </c>
     </row>
-    <row r="119" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:61">
       <c r="D119" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="E119" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F119" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H119">
         <v>780</v>
@@ -12497,10 +12869,10 @@
         <v>170</v>
       </c>
       <c r="AC119" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD119" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AF119">
         <v>0.26</v>
@@ -12553,16 +12925,19 @@
       <c r="BC119">
         <v>0</v>
       </c>
+      <c r="BI119">
+        <v>9</v>
+      </c>
     </row>
-    <row r="120" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:61">
       <c r="D120" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E120" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F120" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H120">
         <v>780</v>
@@ -12592,10 +12967,10 @@
         <v>170</v>
       </c>
       <c r="AC120" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD120" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AF120">
         <v>0.26</v>
@@ -12648,16 +13023,19 @@
       <c r="BC120">
         <v>0</v>
       </c>
+      <c r="BI120">
+        <v>9</v>
+      </c>
     </row>
-    <row r="121" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:61">
       <c r="D121" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E121" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F121" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H121">
         <v>840</v>
@@ -12675,10 +13053,10 @@
         <v>180</v>
       </c>
       <c r="AC121" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD121" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AE121">
         <v>0.18</v>
@@ -12734,16 +13112,19 @@
       <c r="BC121">
         <v>0</v>
       </c>
+      <c r="BI121">
+        <v>9</v>
+      </c>
     </row>
-    <row r="122" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:61">
       <c r="D122" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E122" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F122" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H122">
         <v>840</v>
@@ -12761,10 +13142,10 @@
         <v>180</v>
       </c>
       <c r="AC122" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD122" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AE122">
         <v>0.18</v>
@@ -12820,16 +13201,19 @@
       <c r="BC122">
         <v>0</v>
       </c>
+      <c r="BI122">
+        <v>9</v>
+      </c>
     </row>
-    <row r="123" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:61">
       <c r="D123" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E123" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F123" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H123">
         <v>840</v>
@@ -12847,10 +13231,10 @@
         <v>180</v>
       </c>
       <c r="AC123" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD123" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE123">
         <v>0.18</v>
@@ -12906,16 +13290,19 @@
       <c r="BC123">
         <v>0</v>
       </c>
+      <c r="BI123">
+        <v>9</v>
+      </c>
     </row>
-    <row r="124" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:61">
       <c r="D124" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E124" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F124" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H124">
         <v>840</v>
@@ -12933,10 +13320,10 @@
         <v>180</v>
       </c>
       <c r="AC124" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD124" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AE124">
         <v>0.18</v>
@@ -12992,16 +13379,19 @@
       <c r="BC124">
         <v>0</v>
       </c>
+      <c r="BI124">
+        <v>9</v>
+      </c>
     </row>
-    <row r="125" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:61">
       <c r="D125" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="E125" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F125" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H125">
         <v>840</v>
@@ -13019,10 +13409,10 @@
         <v>180</v>
       </c>
       <c r="AC125" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD125" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE125">
         <v>0.18</v>
@@ -13078,16 +13468,19 @@
       <c r="BC125">
         <v>0</v>
       </c>
+      <c r="BI125">
+        <v>9</v>
+      </c>
     </row>
-    <row r="126" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:61">
       <c r="D126" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E126" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F126" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H126">
         <v>840</v>
@@ -13105,10 +13498,10 @@
         <v>180</v>
       </c>
       <c r="AC126" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD126" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AE126">
         <v>0.18</v>
@@ -13164,16 +13557,19 @@
       <c r="BC126">
         <v>0</v>
       </c>
+      <c r="BI126">
+        <v>9</v>
+      </c>
     </row>
-    <row r="127" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:61">
       <c r="D127" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E127" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F127" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="H127">
         <v>840</v>
@@ -13197,10 +13593,10 @@
         <v>170</v>
       </c>
       <c r="AC127" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD127" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AF127">
         <v>0.26</v>
@@ -13253,16 +13649,19 @@
       <c r="BC127">
         <v>0</v>
       </c>
+      <c r="BI127">
+        <v>9</v>
+      </c>
     </row>
-    <row r="128" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:61">
       <c r="D128" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E128" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F128" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H128">
         <v>860</v>
@@ -13301,7 +13700,7 @@
         <v>180</v>
       </c>
       <c r="AC128" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF128">
         <v>0</v>
@@ -13351,16 +13750,19 @@
       <c r="BC128">
         <v>0</v>
       </c>
+      <c r="BI128">
+        <v>9</v>
+      </c>
     </row>
-    <row r="129" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:61">
       <c r="D129" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E129" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F129" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="H129">
         <v>880</v>
@@ -13369,7 +13771,7 @@
         <v>350000000</v>
       </c>
       <c r="Q129">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="V129">
         <v>0</v>
@@ -13387,7 +13789,7 @@
         <v>180</v>
       </c>
       <c r="AC129" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF129">
         <v>0</v>
@@ -13437,16 +13839,19 @@
       <c r="BC129">
         <v>0</v>
       </c>
+      <c r="BI129">
+        <v>9</v>
+      </c>
     </row>
-    <row r="130" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:61">
       <c r="D130" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E130" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F130" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H130">
         <v>880</v>
@@ -13455,7 +13860,7 @@
         <v>350000000</v>
       </c>
       <c r="S130">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="V130">
         <v>0</v>
@@ -13473,7 +13878,7 @@
         <v>180</v>
       </c>
       <c r="AC130" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF130">
         <v>0</v>
@@ -13523,16 +13928,19 @@
       <c r="BC130">
         <v>0</v>
       </c>
+      <c r="BI130">
+        <v>9</v>
+      </c>
     </row>
-    <row r="131" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:61">
       <c r="D131" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E131" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F131" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H131">
         <v>880</v>
@@ -13541,7 +13949,7 @@
         <v>350000000</v>
       </c>
       <c r="R131">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="V131">
         <v>0</v>
@@ -13559,7 +13967,7 @@
         <v>180</v>
       </c>
       <c r="AC131" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF131">
         <v>0</v>
@@ -13609,16 +14017,19 @@
       <c r="BC131">
         <v>0</v>
       </c>
+      <c r="BI131">
+        <v>9</v>
+      </c>
     </row>
-    <row r="132" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:61">
       <c r="D132" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="E132" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F132" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="H132">
         <v>880</v>
@@ -13627,7 +14038,7 @@
         <v>350000000</v>
       </c>
       <c r="U132">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="V132">
         <v>0</v>
@@ -13645,7 +14056,7 @@
         <v>180</v>
       </c>
       <c r="AC132" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF132">
         <v>0</v>
@@ -13695,16 +14106,19 @@
       <c r="BC132">
         <v>0</v>
       </c>
+      <c r="BI132">
+        <v>9</v>
+      </c>
     </row>
-    <row r="133" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:61">
       <c r="D133" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="E133" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F133" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H133">
         <v>880</v>
@@ -13713,7 +14127,7 @@
         <v>350000000</v>
       </c>
       <c r="T133">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="V133">
         <v>0</v>
@@ -13731,7 +14145,7 @@
         <v>180</v>
       </c>
       <c r="AC133" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF133">
         <v>0</v>
@@ -13781,16 +14195,19 @@
       <c r="BC133">
         <v>0</v>
       </c>
+      <c r="BI133">
+        <v>9</v>
+      </c>
     </row>
-    <row r="134" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:61">
       <c r="D134" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E134" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F134" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H134">
         <v>890</v>
@@ -13808,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="W134">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="Y134">
         <v>1</v>
@@ -13820,7 +14237,7 @@
         <v>180</v>
       </c>
       <c r="AC134" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF134">
         <v>0</v>
@@ -13870,16 +14287,19 @@
       <c r="BC134">
         <v>0</v>
       </c>
+      <c r="BI134">
+        <v>9</v>
+      </c>
     </row>
-    <row r="135" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:61">
       <c r="D135" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="E135" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F135" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H135">
         <v>890</v>
@@ -13894,7 +14314,7 @@
         <v>0</v>
       </c>
       <c r="V135">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="W135">
         <v>0</v>
@@ -13909,7 +14329,7 @@
         <v>180</v>
       </c>
       <c r="AC135" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF135">
         <v>0</v>
@@ -13959,16 +14379,19 @@
       <c r="BC135">
         <v>0</v>
       </c>
+      <c r="BI135">
+        <v>9</v>
+      </c>
     </row>
-    <row r="136" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:61">
       <c r="D136" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E136" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F136" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H136">
         <v>900</v>
@@ -13992,10 +14415,10 @@
         <v>180</v>
       </c>
       <c r="AC136" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD136" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AE136">
         <v>0.2</v>
@@ -14051,16 +14474,19 @@
       <c r="BC136">
         <v>0</v>
       </c>
+      <c r="BI136">
+        <v>9</v>
+      </c>
     </row>
-    <row r="137" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:61">
       <c r="D137" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="E137" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F137" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H137">
         <v>900</v>
@@ -14084,10 +14510,10 @@
         <v>180</v>
       </c>
       <c r="AC137" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD137" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AE137">
         <v>0.2</v>
@@ -14143,16 +14569,19 @@
       <c r="BC137">
         <v>0</v>
       </c>
+      <c r="BI137">
+        <v>9</v>
+      </c>
     </row>
-    <row r="138" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:61">
       <c r="D138" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="E138" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F138" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H138">
         <v>900</v>
@@ -14176,10 +14605,10 @@
         <v>180</v>
       </c>
       <c r="AC138" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD138" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AE138">
         <v>0.2</v>
@@ -14235,16 +14664,19 @@
       <c r="BC138">
         <v>0</v>
       </c>
+      <c r="BI138">
+        <v>9</v>
+      </c>
     </row>
-    <row r="139" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:61">
       <c r="D139" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E139" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F139" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H139">
         <v>925</v>
@@ -14274,10 +14706,10 @@
         <v>180</v>
       </c>
       <c r="AC139" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD139" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF139">
         <v>0.3</v>
@@ -14330,16 +14762,19 @@
       <c r="BC139">
         <v>0</v>
       </c>
+      <c r="BI139">
+        <v>9</v>
+      </c>
     </row>
-    <row r="140" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:61">
       <c r="D140" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E140" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F140" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H140">
         <v>925</v>
@@ -14372,10 +14807,10 @@
         <v>180</v>
       </c>
       <c r="AC140" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD140" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AF140">
         <v>0.3</v>
@@ -14428,16 +14863,19 @@
       <c r="BC140">
         <v>0</v>
       </c>
+      <c r="BI140">
+        <v>9</v>
+      </c>
     </row>
-    <row r="141" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:61">
       <c r="D141" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="E141" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F141" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="H141">
         <v>925</v>
@@ -14467,10 +14905,10 @@
         <v>180</v>
       </c>
       <c r="AC141" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD141" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AF141">
         <v>0.3</v>
@@ -14523,16 +14961,19 @@
       <c r="BC141">
         <v>0</v>
       </c>
+      <c r="BI141">
+        <v>9</v>
+      </c>
     </row>
-    <row r="142" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:61">
       <c r="D142" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="E142" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F142" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H142">
         <v>925</v>
@@ -14562,10 +15003,10 @@
         <v>180</v>
       </c>
       <c r="AC142" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD142" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AF142">
         <v>0.3</v>
@@ -14618,16 +15059,19 @@
       <c r="BC142">
         <v>0</v>
       </c>
+      <c r="BI142">
+        <v>9</v>
+      </c>
     </row>
-    <row r="143" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:61">
       <c r="D143" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="E143" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F143" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="H143">
         <v>925</v>
@@ -14657,10 +15101,10 @@
         <v>180</v>
       </c>
       <c r="AC143" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD143" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AF143">
         <v>0.3</v>
@@ -14713,16 +15157,19 @@
       <c r="BC143">
         <v>0</v>
       </c>
+      <c r="BI143">
+        <v>9</v>
+      </c>
     </row>
-    <row r="144" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:61">
       <c r="D144" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="E144" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F144" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="H144">
         <v>940</v>
@@ -14746,10 +15193,10 @@
         <v>180</v>
       </c>
       <c r="AC144" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD144" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE144">
         <v>0.2</v>
@@ -14805,16 +15252,19 @@
       <c r="BC144">
         <v>0</v>
       </c>
+      <c r="BI144">
+        <v>9</v>
+      </c>
     </row>
-    <row r="145" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:61">
       <c r="D145" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="E145" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F145" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H145">
         <v>940</v>
@@ -14838,10 +15288,10 @@
         <v>180</v>
       </c>
       <c r="AC145" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD145" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AE145">
         <v>0.2</v>
@@ -14897,16 +15347,19 @@
       <c r="BC145">
         <v>0</v>
       </c>
+      <c r="BI145">
+        <v>9</v>
+      </c>
     </row>
-    <row r="146" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:61">
       <c r="D146" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E146" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F146" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="H146">
         <v>940</v>
@@ -14930,10 +15383,10 @@
         <v>180</v>
       </c>
       <c r="AC146" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD146" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AE146">
         <v>0.2</v>
@@ -14989,16 +15442,19 @@
       <c r="BC146">
         <v>0</v>
       </c>
+      <c r="BI146">
+        <v>9</v>
+      </c>
     </row>
-    <row r="147" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:61">
       <c r="D147" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="E147" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F147" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="H147">
         <v>940</v>
@@ -15022,10 +15478,10 @@
         <v>180</v>
       </c>
       <c r="AC147" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD147" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE147">
         <v>0.2</v>
@@ -15081,16 +15537,19 @@
       <c r="BC147">
         <v>0</v>
       </c>
+      <c r="BI147">
+        <v>9</v>
+      </c>
     </row>
-    <row r="148" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:61">
       <c r="D148" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E148" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F148" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="H148">
         <v>940</v>
@@ -15114,10 +15573,10 @@
         <v>180</v>
       </c>
       <c r="AC148" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD148" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AE148">
         <v>0.2</v>
@@ -15173,16 +15632,19 @@
       <c r="BC148">
         <v>0</v>
       </c>
+      <c r="BI148">
+        <v>9</v>
+      </c>
     </row>
-    <row r="149" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:61">
       <c r="D149" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="E149" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F149" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H149">
         <v>940</v>
@@ -15206,10 +15668,10 @@
         <v>180</v>
       </c>
       <c r="AC149" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD149" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AE149">
         <v>0.2</v>
@@ -15265,16 +15727,19 @@
       <c r="BC149">
         <v>0</v>
       </c>
+      <c r="BI149">
+        <v>9</v>
+      </c>
     </row>
-    <row r="150" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:61">
       <c r="D150" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="E150" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F150" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H150">
         <v>960</v>
@@ -15283,25 +15748,25 @@
         <v>500000000</v>
       </c>
       <c r="Q150">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="R150">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="S150">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="T150">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="U150">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="V150">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="W150">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="Y150">
         <v>1</v>
@@ -15313,7 +15778,7 @@
         <v>180</v>
       </c>
       <c r="AC150" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF150">
         <v>0</v>
@@ -15363,16 +15828,19 @@
       <c r="BC150">
         <v>0</v>
       </c>
+      <c r="BI150">
+        <v>9</v>
+      </c>
     </row>
-    <row r="151" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:61">
       <c r="D151" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E151" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F151" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="H151">
         <v>980</v>
@@ -15393,10 +15861,10 @@
         <v>180</v>
       </c>
       <c r="AC151" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD151" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AE151">
         <v>0.08</v>
@@ -15452,16 +15920,19 @@
       <c r="BC151">
         <v>0</v>
       </c>
+      <c r="BI151">
+        <v>9</v>
+      </c>
     </row>
-    <row r="152" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:61">
       <c r="D152" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F152" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H152">
         <v>980</v>
@@ -15488,7 +15959,7 @@
         <v>180</v>
       </c>
       <c r="AC152" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF152">
         <v>0</v>
@@ -15538,16 +16009,19 @@
       <c r="BC152">
         <v>0</v>
       </c>
+      <c r="BI152">
+        <v>9</v>
+      </c>
     </row>
-    <row r="153" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:61">
       <c r="D153" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E153" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F153" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H153">
         <v>980</v>
@@ -15574,7 +16048,7 @@
         <v>180</v>
       </c>
       <c r="AC153" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF153">
         <v>0</v>
@@ -15624,16 +16098,19 @@
       <c r="BC153">
         <v>0</v>
       </c>
+      <c r="BI153">
+        <v>9</v>
+      </c>
     </row>
-    <row r="154" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:61">
       <c r="D154" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E154" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F154" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H154">
         <v>980</v>
@@ -15660,7 +16137,7 @@
         <v>180</v>
       </c>
       <c r="AC154" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF154">
         <v>0</v>
@@ -15710,16 +16187,19 @@
       <c r="BC154">
         <v>0</v>
       </c>
+      <c r="BI154">
+        <v>9</v>
+      </c>
     </row>
-    <row r="155" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:61">
       <c r="D155" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="E155" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F155" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="H155">
         <v>980</v>
@@ -15746,7 +16226,7 @@
         <v>180</v>
       </c>
       <c r="AC155" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF155">
         <v>0</v>
@@ -15796,16 +16276,19 @@
       <c r="BC155">
         <v>0</v>
       </c>
+      <c r="BI155">
+        <v>9</v>
+      </c>
     </row>
-    <row r="156" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:61">
       <c r="D156" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="E156" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F156" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="H156">
         <v>1000</v>
@@ -15835,7 +16318,7 @@
         <v>180</v>
       </c>
       <c r="AC156" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF156">
         <v>0</v>
@@ -15885,16 +16368,19 @@
       <c r="BC156">
         <v>0</v>
       </c>
+      <c r="BI156">
+        <v>9</v>
+      </c>
     </row>
-    <row r="157" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:61">
       <c r="D157" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="E157" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F157" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H157">
         <v>1000</v>
@@ -15924,7 +16410,7 @@
         <v>180</v>
       </c>
       <c r="AC157" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF157">
         <v>0</v>
@@ -15974,16 +16460,19 @@
       <c r="BC157">
         <v>0</v>
       </c>
+      <c r="BI157">
+        <v>9</v>
+      </c>
     </row>
-    <row r="158" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:61">
       <c r="D158" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="E158" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F158" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H158">
         <v>1150</v>
@@ -16007,10 +16496,10 @@
         <v>180</v>
       </c>
       <c r="AC158" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD158" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AE158">
         <v>0.25</v>
@@ -16066,16 +16555,19 @@
       <c r="BC158">
         <v>0</v>
       </c>
+      <c r="BI158">
+        <v>9</v>
+      </c>
     </row>
-    <row r="159" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:61">
       <c r="D159" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E159" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F159" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="H159">
         <v>1150</v>
@@ -16099,10 +16591,10 @@
         <v>180</v>
       </c>
       <c r="AC159" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD159" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AE159">
         <v>0.25</v>
@@ -16158,16 +16650,19 @@
       <c r="BC159">
         <v>0</v>
       </c>
+      <c r="BI159">
+        <v>9</v>
+      </c>
     </row>
-    <row r="160" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:61">
       <c r="D160" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E160" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F160" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="H160">
         <v>1175</v>
@@ -16191,10 +16686,10 @@
         <v>180</v>
       </c>
       <c r="AC160" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD160" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AE160">
         <v>0.25</v>
@@ -16250,16 +16745,19 @@
       <c r="BC160">
         <v>0</v>
       </c>
+      <c r="BI160">
+        <v>9</v>
+      </c>
     </row>
-    <row r="161" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:61">
       <c r="D161" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E161" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F161" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H161">
         <v>1220</v>
@@ -16289,10 +16787,10 @@
         <v>190</v>
       </c>
       <c r="AC161" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD161" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF161">
         <v>0.35</v>
@@ -16304,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="AI161">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="AJ161">
         <v>0</v>
@@ -16345,16 +16843,19 @@
       <c r="BC161">
         <v>0</v>
       </c>
+      <c r="BI161">
+        <v>10</v>
+      </c>
     </row>
-    <row r="162" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:61">
       <c r="D162" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="E162" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F162" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H162">
         <v>1220</v>
@@ -16387,10 +16888,10 @@
         <v>190</v>
       </c>
       <c r="AC162" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD162" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AF162">
         <v>0.35</v>
@@ -16443,16 +16944,19 @@
       <c r="BC162">
         <v>0</v>
       </c>
+      <c r="BI162">
+        <v>10</v>
+      </c>
     </row>
-    <row r="163" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:61">
       <c r="D163" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="E163" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F163" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="H163">
         <v>1220</v>
@@ -16482,10 +16986,10 @@
         <v>190</v>
       </c>
       <c r="AC163" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD163" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AF163">
         <v>0.35</v>
@@ -16497,7 +17001,7 @@
         <v>0</v>
       </c>
       <c r="AI163">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="AJ163">
         <v>0</v>
@@ -16538,16 +17042,19 @@
       <c r="BC163">
         <v>0</v>
       </c>
+      <c r="BI163">
+        <v>10</v>
+      </c>
     </row>
-    <row r="164" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:61">
       <c r="D164" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E164" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F164" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="H164">
         <v>1220</v>
@@ -16577,10 +17084,10 @@
         <v>190</v>
       </c>
       <c r="AC164" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD164" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AF164">
         <v>0.35</v>
@@ -16633,16 +17140,19 @@
       <c r="BC164">
         <v>0</v>
       </c>
+      <c r="BI164">
+        <v>10</v>
+      </c>
     </row>
-    <row r="165" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:61">
       <c r="D165" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E165" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F165" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H165">
         <v>1220</v>
@@ -16672,10 +17182,10 @@
         <v>190</v>
       </c>
       <c r="AC165" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD165" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AF165">
         <v>0.35</v>
@@ -16728,16 +17238,19 @@
       <c r="BC165">
         <v>0</v>
       </c>
+      <c r="BI165">
+        <v>10</v>
+      </c>
     </row>
-    <row r="166" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:61">
       <c r="D166" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E166" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F166" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H166">
         <v>1260</v>
@@ -16761,10 +17274,10 @@
         <v>210</v>
       </c>
       <c r="AC166" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD166" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE166">
         <v>0.25</v>
@@ -16820,16 +17333,19 @@
       <c r="BC166">
         <v>0</v>
       </c>
+      <c r="BI166">
+        <v>11</v>
+      </c>
     </row>
-    <row r="167" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:61">
       <c r="D167" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="E167" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F167" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H167">
         <v>1260</v>
@@ -16859,10 +17375,10 @@
         <v>190</v>
       </c>
       <c r="AC167" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD167" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AF167">
         <v>0.35</v>
@@ -16915,16 +17431,19 @@
       <c r="BC167">
         <v>0</v>
       </c>
+      <c r="BI167">
+        <v>10</v>
+      </c>
     </row>
-    <row r="168" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:61">
       <c r="D168" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="E168" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F168" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H168">
         <v>1260</v>
@@ -16948,10 +17467,10 @@
         <v>210</v>
       </c>
       <c r="AC168" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD168" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AE168">
         <v>0.25</v>
@@ -17007,16 +17526,19 @@
       <c r="BC168">
         <v>0</v>
       </c>
+      <c r="BI168">
+        <v>11</v>
+      </c>
     </row>
-    <row r="169" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:61">
       <c r="D169" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="E169" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F169" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="H169">
         <v>1260</v>
@@ -17040,10 +17562,10 @@
         <v>210</v>
       </c>
       <c r="AC169" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD169" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AE169">
         <v>0.25</v>
@@ -17099,16 +17621,19 @@
       <c r="BC169">
         <v>0</v>
       </c>
+      <c r="BI169">
+        <v>11</v>
+      </c>
     </row>
-    <row r="170" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:61">
       <c r="D170" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E170" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F170" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="H170">
         <v>1260</v>
@@ -17132,10 +17657,10 @@
         <v>210</v>
       </c>
       <c r="AC170" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD170" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE170">
         <v>0.25</v>
@@ -17191,16 +17716,19 @@
       <c r="BC170">
         <v>0</v>
       </c>
+      <c r="BI170">
+        <v>11</v>
+      </c>
     </row>
-    <row r="171" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:61">
       <c r="D171" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="E171" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F171" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="H171">
         <v>1260</v>
@@ -17224,10 +17752,10 @@
         <v>210</v>
       </c>
       <c r="AC171" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD171" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AE171">
         <v>0.25</v>
@@ -17283,16 +17811,19 @@
       <c r="BC171">
         <v>0</v>
       </c>
+      <c r="BI171">
+        <v>11</v>
+      </c>
     </row>
-    <row r="172" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:61">
       <c r="D172" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E172" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F172" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="H172">
         <v>1260</v>
@@ -17316,10 +17847,10 @@
         <v>210</v>
       </c>
       <c r="AC172" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD172" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AE172">
         <v>0.25</v>
@@ -17375,16 +17906,19 @@
       <c r="BC172">
         <v>0</v>
       </c>
+      <c r="BI172">
+        <v>11</v>
+      </c>
     </row>
-    <row r="173" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:61">
       <c r="D173" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E173" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F173" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="H173">
         <v>1300</v>
@@ -17423,7 +17957,7 @@
         <v>220</v>
       </c>
       <c r="AC173" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF173">
         <v>0</v>
@@ -17473,16 +18007,19 @@
       <c r="BC173">
         <v>0</v>
       </c>
+      <c r="BI173">
+        <v>11</v>
+      </c>
     </row>
-    <row r="174" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:61">
       <c r="D174" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E174" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F174" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="H174">
         <v>1310</v>
@@ -17509,7 +18046,7 @@
         <v>220</v>
       </c>
       <c r="AC174" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF174">
         <v>0</v>
@@ -17559,16 +18096,19 @@
       <c r="BC174">
         <v>0</v>
       </c>
+      <c r="BI174">
+        <v>11</v>
+      </c>
     </row>
-    <row r="175" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:61">
       <c r="D175" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E175" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F175" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="H175">
         <v>1310</v>
@@ -17595,7 +18135,7 @@
         <v>220</v>
       </c>
       <c r="AC175" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF175">
         <v>0</v>
@@ -17645,16 +18185,19 @@
       <c r="BC175">
         <v>0</v>
       </c>
+      <c r="BI175">
+        <v>11</v>
+      </c>
     </row>
-    <row r="176" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:61">
       <c r="D176" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E176" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F176" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="H176">
         <v>1310</v>
@@ -17681,7 +18224,7 @@
         <v>220</v>
       </c>
       <c r="AC176" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF176">
         <v>0</v>
@@ -17731,16 +18274,19 @@
       <c r="BC176">
         <v>0</v>
       </c>
+      <c r="BI176">
+        <v>11</v>
+      </c>
     </row>
-    <row r="177" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:61">
       <c r="D177" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E177" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F177" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="H177">
         <v>1310</v>
@@ -17767,7 +18313,7 @@
         <v>220</v>
       </c>
       <c r="AC177" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF177">
         <v>0</v>
@@ -17817,16 +18363,19 @@
       <c r="BC177">
         <v>0</v>
       </c>
+      <c r="BI177">
+        <v>11</v>
+      </c>
     </row>
-    <row r="178" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:61">
       <c r="D178" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="E178" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F178" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="H178">
         <v>1330</v>
@@ -17856,7 +18405,7 @@
         <v>220</v>
       </c>
       <c r="AC178" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF178">
         <v>0</v>
@@ -17906,16 +18455,19 @@
       <c r="BC178">
         <v>0</v>
       </c>
+      <c r="BI178">
+        <v>11</v>
+      </c>
     </row>
-    <row r="179" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:61">
       <c r="D179" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="E179" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F179" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H179">
         <v>1330</v>
@@ -17945,7 +18497,7 @@
         <v>220</v>
       </c>
       <c r="AC179" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF179">
         <v>0</v>
@@ -17995,16 +18547,19 @@
       <c r="BC179">
         <v>0</v>
       </c>
+      <c r="BI179">
+        <v>11</v>
+      </c>
     </row>
-    <row r="180" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:61">
       <c r="D180" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="E180" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F180" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="H180">
         <v>1360</v>
@@ -18028,10 +18583,10 @@
         <v>230</v>
       </c>
       <c r="AC180" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD180" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AE180">
         <v>0.3</v>
@@ -18052,7 +18607,7 @@
         <v>0</v>
       </c>
       <c r="AK180">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="AO180">
         <v>0</v>
@@ -18087,16 +18642,19 @@
       <c r="BC180">
         <v>0</v>
       </c>
+      <c r="BI180">
+        <v>12</v>
+      </c>
     </row>
-    <row r="181" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:61">
       <c r="D181" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E181" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F181" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="H181">
         <v>1360</v>
@@ -18120,10 +18678,10 @@
         <v>230</v>
       </c>
       <c r="AC181" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD181" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AE181">
         <v>0.3</v>
@@ -18179,16 +18737,19 @@
       <c r="BC181">
         <v>0</v>
       </c>
+      <c r="BI181">
+        <v>12</v>
+      </c>
     </row>
-    <row r="182" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:61">
       <c r="D182" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="E182" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F182" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H182">
         <v>1380</v>
@@ -18212,10 +18773,10 @@
         <v>230</v>
       </c>
       <c r="AC182" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD182" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AE182">
         <v>0.3</v>
@@ -18271,16 +18832,19 @@
       <c r="BC182">
         <v>0</v>
       </c>
+      <c r="BI182">
+        <v>12</v>
+      </c>
     </row>
-    <row r="183" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:61">
       <c r="D183" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="E183" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F183" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H183">
         <v>1400</v>
@@ -18310,10 +18874,10 @@
         <v>250</v>
       </c>
       <c r="AC183" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD183" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF183">
         <v>0.38</v>
@@ -18325,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="AI183">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="AJ183">
         <v>0</v>
@@ -18366,16 +18930,19 @@
       <c r="BC183">
         <v>0</v>
       </c>
+      <c r="BI183">
+        <v>13</v>
+      </c>
     </row>
-    <row r="184" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:61">
       <c r="D184" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="E184" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F184" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="H184">
         <v>1400</v>
@@ -18408,10 +18975,10 @@
         <v>250</v>
       </c>
       <c r="AC184" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD184" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AF184">
         <v>0.38</v>
@@ -18464,16 +19031,19 @@
       <c r="BC184">
         <v>0</v>
       </c>
+      <c r="BI184">
+        <v>13</v>
+      </c>
     </row>
-    <row r="185" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:61">
       <c r="D185" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E185" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F185" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="H185">
         <v>1400</v>
@@ -18503,10 +19073,10 @@
         <v>250</v>
       </c>
       <c r="AC185" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD185" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AF185">
         <v>0.38</v>
@@ -18559,16 +19129,19 @@
       <c r="BC185">
         <v>0</v>
       </c>
+      <c r="BI185">
+        <v>13</v>
+      </c>
     </row>
-    <row r="186" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:61">
       <c r="D186" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="E186" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F186" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="H186">
         <v>1440</v>
@@ -18592,10 +19165,10 @@
         <v>260</v>
       </c>
       <c r="AC186" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD186" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AE186">
         <v>0.3</v>
@@ -18651,16 +19224,19 @@
       <c r="BC186">
         <v>0</v>
       </c>
+      <c r="BI186">
+        <v>13</v>
+      </c>
     </row>
-    <row r="187" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:61">
       <c r="D187" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="E187" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F187" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H187">
         <v>1400</v>
@@ -18690,10 +19266,10 @@
         <v>250</v>
       </c>
       <c r="AC187" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD187" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AF187">
         <v>0.38</v>
@@ -18746,16 +19322,19 @@
       <c r="BC187">
         <v>0</v>
       </c>
+      <c r="BI187">
+        <v>13</v>
+      </c>
     </row>
-    <row r="188" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:61">
       <c r="D188" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="E188" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F188" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="H188">
         <v>1440</v>
@@ -18779,10 +19358,10 @@
         <v>260</v>
       </c>
       <c r="AC188" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD188" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AE188">
         <v>0.3</v>
@@ -18838,16 +19417,19 @@
       <c r="BC188">
         <v>0</v>
       </c>
+      <c r="BI188">
+        <v>13</v>
+      </c>
     </row>
-    <row r="189" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:61">
       <c r="D189" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E189" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F189" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="H189">
         <v>1440</v>
@@ -18871,10 +19453,10 @@
         <v>260</v>
       </c>
       <c r="AC189" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD189" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AE189">
         <v>0.3</v>
@@ -18930,16 +19512,19 @@
       <c r="BC189">
         <v>0</v>
       </c>
+      <c r="BI189">
+        <v>13</v>
+      </c>
     </row>
-    <row r="190" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:61">
       <c r="D190" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E190" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F190" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="H190">
         <v>1440</v>
@@ -18963,10 +19548,10 @@
         <v>260</v>
       </c>
       <c r="AC190" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD190" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE190">
         <v>0.3</v>
@@ -19022,16 +19607,19 @@
       <c r="BC190">
         <v>0</v>
       </c>
+      <c r="BI190">
+        <v>13</v>
+      </c>
     </row>
-    <row r="191" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:61">
       <c r="D191" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="E191" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F191" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="H191">
         <v>1440</v>
@@ -19055,10 +19643,10 @@
         <v>260</v>
       </c>
       <c r="AC191" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD191" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AE191">
         <v>0.3</v>
@@ -19114,16 +19702,19 @@
       <c r="BC191">
         <v>0</v>
       </c>
+      <c r="BI191">
+        <v>13</v>
+      </c>
     </row>
-    <row r="192" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:61">
       <c r="D192" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="E192" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F192" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H192">
         <v>1440</v>
@@ -19147,10 +19738,10 @@
         <v>260</v>
       </c>
       <c r="AC192" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD192" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE192">
         <v>0.3</v>
@@ -19206,16 +19797,19 @@
       <c r="BC192">
         <v>0</v>
       </c>
+      <c r="BI192">
+        <v>13</v>
+      </c>
     </row>
-    <row r="193" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:61">
       <c r="D193" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="E193" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F193" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="H193">
         <v>1450</v>
@@ -19254,7 +19848,7 @@
         <v>260</v>
       </c>
       <c r="AC193" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF193">
         <v>0</v>
@@ -19307,16 +19901,19 @@
       <c r="BC193">
         <v>0</v>
       </c>
+      <c r="BI193">
+        <v>13</v>
+      </c>
     </row>
-    <row r="194" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:61">
       <c r="D194" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E194" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F194" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="H194">
         <v>1460</v>
@@ -19343,7 +19940,7 @@
         <v>270</v>
       </c>
       <c r="AC194" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF194">
         <v>0</v>
@@ -19396,16 +19993,19 @@
       <c r="BC194">
         <v>0</v>
       </c>
+      <c r="BI194">
+        <v>14</v>
+      </c>
     </row>
-    <row r="195" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:61">
       <c r="D195" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="E195" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F195" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="H195">
         <v>1460</v>
@@ -19432,7 +20032,7 @@
         <v>270</v>
       </c>
       <c r="AC195" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF195">
         <v>0</v>
@@ -19485,16 +20085,19 @@
       <c r="BC195">
         <v>0</v>
       </c>
+      <c r="BI195">
+        <v>14</v>
+      </c>
     </row>
-    <row r="196" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:61">
       <c r="D196" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E196" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F196" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H196">
         <v>1460</v>
@@ -19521,7 +20124,7 @@
         <v>270</v>
       </c>
       <c r="AC196" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF196">
         <v>0</v>
@@ -19574,16 +20177,19 @@
       <c r="BC196">
         <v>0</v>
       </c>
+      <c r="BI196">
+        <v>14</v>
+      </c>
     </row>
-    <row r="197" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:61">
       <c r="D197" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="E197" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F197" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="H197">
         <v>1460</v>
@@ -19610,7 +20216,7 @@
         <v>270</v>
       </c>
       <c r="AC197" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF197">
         <v>0</v>
@@ -19663,16 +20269,19 @@
       <c r="BC197">
         <v>0</v>
       </c>
+      <c r="BI197">
+        <v>14</v>
+      </c>
     </row>
-    <row r="198" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:61">
       <c r="D198" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E198" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F198" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="H198">
         <v>1460</v>
@@ -19699,7 +20308,7 @@
         <v>290</v>
       </c>
       <c r="AC198" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF198">
         <v>0</v>
@@ -19752,16 +20361,19 @@
       <c r="BC198">
         <v>0</v>
       </c>
+      <c r="BI198">
+        <v>15</v>
+      </c>
     </row>
-    <row r="199" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:61">
       <c r="D199" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E199" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F199" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="H199">
         <v>1480</v>
@@ -19791,7 +20403,7 @@
         <v>290</v>
       </c>
       <c r="AC199" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF199">
         <v>0</v>
@@ -19844,16 +20456,19 @@
       <c r="BC199">
         <v>0</v>
       </c>
+      <c r="BI199">
+        <v>15</v>
+      </c>
     </row>
-    <row r="200" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:61">
       <c r="D200" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="E200" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F200" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H200">
         <v>1480</v>
@@ -19883,7 +20498,7 @@
         <v>290</v>
       </c>
       <c r="AC200" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF200">
         <v>0</v>
@@ -19936,16 +20551,19 @@
       <c r="BC200">
         <v>0</v>
       </c>
+      <c r="BI200">
+        <v>15</v>
+      </c>
     </row>
-    <row r="201" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:61">
       <c r="D201" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="E201" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F201" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="H201">
         <v>1500</v>
@@ -19969,10 +20587,10 @@
         <v>290</v>
       </c>
       <c r="AC201" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD201" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AE201">
         <v>0.35</v>
@@ -20031,16 +20649,19 @@
       <c r="BC201">
         <v>0</v>
       </c>
+      <c r="BI201">
+        <v>15</v>
+      </c>
     </row>
-    <row r="202" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:61">
       <c r="D202" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E202" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F202" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="H202">
         <v>1500</v>
@@ -20064,10 +20685,10 @@
         <v>290</v>
       </c>
       <c r="AC202" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD202" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="AE202">
         <v>0.35</v>
@@ -20126,16 +20747,19 @@
       <c r="BC202">
         <v>0</v>
       </c>
+      <c r="BI202">
+        <v>15</v>
+      </c>
     </row>
-    <row r="203" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:61">
       <c r="D203" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="E203" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F203" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="H203">
         <v>1530</v>
@@ -20168,10 +20792,10 @@
         <v>310</v>
       </c>
       <c r="AC203" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD203" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AF203">
         <v>0.42</v>
@@ -20227,16 +20851,19 @@
       <c r="BC203">
         <v>0</v>
       </c>
+      <c r="BI203">
+        <v>16</v>
+      </c>
     </row>
-    <row r="204" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:61">
       <c r="D204" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="E204" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F204" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H204">
         <v>1530</v>
@@ -20266,10 +20893,10 @@
         <v>310</v>
       </c>
       <c r="AC204" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD204" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AF204">
         <v>0.42</v>
@@ -20281,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="AI204">
-        <v>4.2000000000000003E-2</v>
+        <v>0.042</v>
       </c>
       <c r="AJ204">
         <v>0</v>
@@ -20325,16 +20952,19 @@
       <c r="BC204">
         <v>0</v>
       </c>
+      <c r="BI204">
+        <v>16</v>
+      </c>
     </row>
-    <row r="205" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:61">
       <c r="D205" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E205" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F205" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="H205">
         <v>1500</v>
@@ -20358,10 +20988,10 @@
         <v>290</v>
       </c>
       <c r="AC205" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD205" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AE205">
         <v>0.35</v>
@@ -20420,16 +21050,19 @@
       <c r="BC205">
         <v>0</v>
       </c>
+      <c r="BI205">
+        <v>15</v>
+      </c>
     </row>
-    <row r="206" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:61">
       <c r="D206" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="E206" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F206" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="H206">
         <v>1530</v>
@@ -20459,10 +21092,10 @@
         <v>310</v>
       </c>
       <c r="AC206" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD206" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AF206">
         <v>0.42</v>
@@ -20474,7 +21107,7 @@
         <v>0</v>
       </c>
       <c r="AI206">
-        <v>4.2000000000000003E-2</v>
+        <v>0.042</v>
       </c>
       <c r="AJ206">
         <v>0</v>
@@ -20518,16 +21151,19 @@
       <c r="BC206">
         <v>0</v>
       </c>
+      <c r="BI206">
+        <v>16</v>
+      </c>
     </row>
-    <row r="207" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:61">
       <c r="D207" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="E207" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F207" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="H207">
         <v>1530</v>
@@ -20557,10 +21193,10 @@
         <v>310</v>
       </c>
       <c r="AC207" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD207" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AF207">
         <v>0.42</v>
@@ -20616,16 +21252,19 @@
       <c r="BC207">
         <v>0</v>
       </c>
+      <c r="BI207">
+        <v>16</v>
+      </c>
     </row>
-    <row r="208" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:61">
       <c r="D208" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="E208" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F208" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="H208">
         <v>1530</v>
@@ -20655,10 +21294,10 @@
         <v>310</v>
       </c>
       <c r="AC208" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD208" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="AF208">
         <v>0.42</v>
@@ -20714,16 +21353,19 @@
       <c r="BC208">
         <v>0</v>
       </c>
+      <c r="BI208">
+        <v>16</v>
+      </c>
     </row>
-    <row r="209" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:61">
       <c r="D209" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="E209" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F209" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="H209">
         <v>1530</v>
@@ -20747,10 +21389,10 @@
         <v>320</v>
       </c>
       <c r="AC209" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD209" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AE209">
         <v>0.35</v>
@@ -20809,16 +21451,19 @@
       <c r="BC209">
         <v>0</v>
       </c>
+      <c r="BI209">
+        <v>16</v>
+      </c>
     </row>
-    <row r="210" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:61">
       <c r="D210" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E210" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F210" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="H210">
         <v>1530</v>
@@ -20842,10 +21487,10 @@
         <v>320</v>
       </c>
       <c r="AC210" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD210" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AE210">
         <v>0.35</v>
@@ -20904,16 +21549,19 @@
       <c r="BC210">
         <v>0</v>
       </c>
+      <c r="BI210">
+        <v>16</v>
+      </c>
     </row>
-    <row r="211" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:61">
       <c r="D211" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="E211" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F211" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="H211">
         <v>1530</v>
@@ -20937,10 +21585,10 @@
         <v>320</v>
       </c>
       <c r="AC211" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD211" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="AE211">
         <v>0.35</v>
@@ -20999,16 +21647,19 @@
       <c r="BC211">
         <v>0</v>
       </c>
+      <c r="BI211">
+        <v>16</v>
+      </c>
     </row>
-    <row r="212" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:61">
       <c r="D212" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="E212" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F212" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="H212">
         <v>1530</v>
@@ -21038,10 +21689,10 @@
         <v>310</v>
       </c>
       <c r="AC212" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD212" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AF212">
         <v>0.42</v>
@@ -21097,16 +21748,19 @@
       <c r="BC212">
         <v>0</v>
       </c>
+      <c r="BI212">
+        <v>16</v>
+      </c>
     </row>
-    <row r="213" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:61">
       <c r="D213" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="E213" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F213" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="H213">
         <v>1530</v>
@@ -21130,10 +21784,10 @@
         <v>320</v>
       </c>
       <c r="AC213" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD213" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AE213">
         <v>0.35</v>
@@ -21192,16 +21846,19 @@
       <c r="BC213">
         <v>0</v>
       </c>
+      <c r="BI213">
+        <v>16</v>
+      </c>
     </row>
-    <row r="214" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:61">
       <c r="D214" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="E214" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F214" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="H214">
         <v>1530</v>
@@ -21225,10 +21882,10 @@
         <v>320</v>
       </c>
       <c r="AC214" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD214" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AE214">
         <v>0.35</v>
@@ -21287,16 +21944,19 @@
       <c r="BC214">
         <v>0</v>
       </c>
+      <c r="BI214">
+        <v>16</v>
+      </c>
     </row>
-    <row r="215" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:61">
       <c r="D215" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E215" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F215" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="H215">
         <v>1530</v>
@@ -21320,10 +21980,10 @@
         <v>320</v>
       </c>
       <c r="AC215" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AD215" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="AE215">
         <v>0.35</v>
@@ -21382,16 +22042,19 @@
       <c r="BC215">
         <v>0</v>
       </c>
+      <c r="BI215">
+        <v>16</v>
+      </c>
     </row>
-    <row r="216" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:61">
       <c r="D216" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="E216" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F216" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="H216">
         <v>1560</v>
@@ -21421,7 +22084,7 @@
         <v>330</v>
       </c>
       <c r="AC216" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF216">
         <v>0</v>
@@ -21474,16 +22137,19 @@
       <c r="BC216">
         <v>0</v>
       </c>
+      <c r="BI216">
+        <v>17</v>
+      </c>
     </row>
-    <row r="217" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:61">
       <c r="D217" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="E217" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F217" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="H217">
         <v>1580</v>
@@ -21513,7 +22179,7 @@
         <v>330</v>
       </c>
       <c r="AC217" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF217">
         <v>0</v>
@@ -21566,16 +22232,19 @@
       <c r="BC217">
         <v>0.05</v>
       </c>
+      <c r="BI217">
+        <v>17</v>
+      </c>
     </row>
-    <row r="218" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:61">
       <c r="D218" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="E218" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F218" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="H218">
         <v>1920</v>
@@ -21596,25 +22265,25 @@
         <v>0.25</v>
       </c>
       <c r="Q218">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="R218">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="S218">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="T218">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="U218">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="V218">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="W218">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="Y218">
         <v>1</v>
@@ -21626,7 +22295,7 @@
         <v>350</v>
       </c>
       <c r="AC218" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF218">
         <v>0.2</v>
@@ -21679,16 +22348,19 @@
       <c r="BC218">
         <v>0.1</v>
       </c>
+      <c r="BI218">
+        <v>18</v>
+      </c>
     </row>
-    <row r="219" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:61">
       <c r="D219" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="E219" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F219" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="H219">
         <v>2150</v>
@@ -21745,7 +22417,7 @@
         <v>360</v>
       </c>
       <c r="AC219" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF219">
         <v>0.15</v>
@@ -21798,16 +22470,19 @@
       <c r="BC219">
         <v>0.15</v>
       </c>
+      <c r="BI219">
+        <v>18</v>
+      </c>
     </row>
-    <row r="220" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:61">
       <c r="D220" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="E220" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F220" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="H220">
         <v>2500</v>
@@ -21858,7 +22533,7 @@
         <v>370</v>
       </c>
       <c r="AC220" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF220">
         <v>0.25</v>
@@ -21902,20 +22577,26 @@
       <c r="BC220">
         <v>0.1</v>
       </c>
+      <c r="BI220">
+        <v>19</v>
+      </c>
     </row>
-    <row r="221" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:61">
       <c r="D221" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E221" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F221" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="H221">
         <v>2800</v>
       </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
       <c r="J221">
         <v>800</v>
       </c>
@@ -21932,25 +22613,25 @@
         <v>0.35</v>
       </c>
       <c r="Q221">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="R221">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="S221">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="T221">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="U221">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="V221">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="W221">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="Y221">
         <v>1</v>
@@ -21962,7 +22643,7 @@
         <v>400</v>
       </c>
       <c r="AC221" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF221">
         <v>0</v>
@@ -22006,16 +22687,19 @@
       <c r="BC221">
         <v>0.18</v>
       </c>
+      <c r="BI221">
+        <v>20</v>
+      </c>
     </row>
-    <row r="222" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:61">
       <c r="D222" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="E222" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F222" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="H222">
         <v>3000</v>
@@ -22072,7 +22756,7 @@
         <v>401</v>
       </c>
       <c r="AC222" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF222">
         <v>0.75</v>
@@ -22084,10 +22768,10 @@
         <v>0.75</v>
       </c>
       <c r="AI222">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="AJ222">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="AL222">
         <v>1</v>
@@ -22125,10 +22809,22 @@
       <c r="BC222">
         <v>0.2</v>
       </c>
+      <c r="BI222">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/data-imports/items/Artifacts.xlsx
+++ b/resources/data-imports/items/Artifacts.xlsx
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:61">
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:61">
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="BI4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:61">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="BI5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:61">
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="BI6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:61">
@@ -2742,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="BI7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:61">
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="BI8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:61">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="BI9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:61">
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="BI10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:61">
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="BI11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:61">
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="BI12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:61">
@@ -3258,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="BI13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:61">
@@ -3350,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="BI14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:61">
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="BI15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:61">
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="BI16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:61">
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="BI17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:61">

--- a/resources/data-imports/items/Artifacts.xlsx
+++ b/resources/data-imports/items/Artifacts.xlsx
@@ -2158,6 +2158,9 @@
       </c>
     </row>
     <row r="2" spans="1:61">
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>61</v>
       </c>
@@ -2262,6 +2265,9 @@
       </c>
     </row>
     <row r="3" spans="1:61">
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>64</v>
       </c>
@@ -2357,6 +2363,9 @@
       </c>
     </row>
     <row r="4" spans="1:61">
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>67</v>
       </c>
@@ -2452,6 +2461,9 @@
       </c>
     </row>
     <row r="5" spans="1:61">
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5" t="s">
         <v>70</v>
       </c>
@@ -2550,6 +2562,9 @@
       </c>
     </row>
     <row r="6" spans="1:61">
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6" t="s">
         <v>73</v>
       </c>
@@ -2645,6 +2660,9 @@
       </c>
     </row>
     <row r="7" spans="1:61">
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7" t="s">
         <v>76</v>
       </c>
@@ -2746,6 +2764,9 @@
       </c>
     </row>
     <row r="8" spans="1:61">
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8" t="s">
         <v>79</v>
       </c>
@@ -2847,6 +2868,9 @@
       </c>
     </row>
     <row r="9" spans="1:61">
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9" t="s">
         <v>82</v>
       </c>
@@ -2930,6 +2954,9 @@
       </c>
     </row>
     <row r="10" spans="1:61">
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10" t="s">
         <v>84</v>
       </c>
@@ -3013,6 +3040,9 @@
       </c>
     </row>
     <row r="11" spans="1:61">
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11" t="s">
         <v>86</v>
       </c>
@@ -3096,6 +3126,9 @@
       </c>
     </row>
     <row r="12" spans="1:61">
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12" t="s">
         <v>88</v>
       </c>
@@ -3179,6 +3212,9 @@
       </c>
     </row>
     <row r="13" spans="1:61">
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="D13" t="s">
         <v>90</v>
       </c>
@@ -3262,6 +3298,9 @@
       </c>
     </row>
     <row r="14" spans="1:61">
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="D14" t="s">
         <v>92</v>
       </c>
@@ -3354,6 +3393,9 @@
       </c>
     </row>
     <row r="15" spans="1:61">
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="D15" t="s">
         <v>94</v>
       </c>
@@ -3443,6 +3485,9 @@
       </c>
     </row>
     <row r="16" spans="1:61">
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="D16" t="s">
         <v>97</v>
       </c>
@@ -3532,6 +3577,9 @@
       </c>
     </row>
     <row r="17" spans="1:61">
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="D17" t="s">
         <v>100</v>
       </c>
@@ -3621,6 +3669,9 @@
       </c>
     </row>
     <row r="18" spans="1:61">
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="D18" t="s">
         <v>103</v>
       </c>
@@ -3716,6 +3767,9 @@
       </c>
     </row>
     <row r="19" spans="1:61">
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="D19" t="s">
         <v>105</v>
       </c>
@@ -3814,6 +3868,9 @@
       </c>
     </row>
     <row r="20" spans="1:61">
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="D20" t="s">
         <v>107</v>
       </c>
@@ -3912,6 +3969,9 @@
       </c>
     </row>
     <row r="21" spans="1:61">
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="D21" t="s">
         <v>109</v>
       </c>
@@ -4010,6 +4070,9 @@
       </c>
     </row>
     <row r="22" spans="1:61">
+      <c r="C22">
+        <v>1</v>
+      </c>
       <c r="D22" t="s">
         <v>111</v>
       </c>
@@ -4108,6 +4171,9 @@
       </c>
     </row>
     <row r="23" spans="1:61">
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="D23" t="s">
         <v>113</v>
       </c>
@@ -4206,6 +4272,9 @@
       </c>
     </row>
     <row r="24" spans="1:61">
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="D24" t="s">
         <v>115</v>
       </c>
@@ -4295,6 +4364,9 @@
       </c>
     </row>
     <row r="25" spans="1:61">
+      <c r="C25">
+        <v>1</v>
+      </c>
       <c r="D25" t="s">
         <v>118</v>
       </c>
@@ -4384,6 +4456,9 @@
       </c>
     </row>
     <row r="26" spans="1:61">
+      <c r="C26">
+        <v>1</v>
+      </c>
       <c r="D26" t="s">
         <v>121</v>
       </c>
@@ -4473,6 +4548,9 @@
       </c>
     </row>
     <row r="27" spans="1:61">
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="D27" t="s">
         <v>124</v>
       </c>
@@ -4562,6 +4640,9 @@
       </c>
     </row>
     <row r="28" spans="1:61">
+      <c r="C28">
+        <v>1</v>
+      </c>
       <c r="D28" t="s">
         <v>127</v>
       </c>
@@ -4651,6 +4732,9 @@
       </c>
     </row>
     <row r="29" spans="1:61">
+      <c r="C29">
+        <v>1</v>
+      </c>
       <c r="D29" t="s">
         <v>130</v>
       </c>
@@ -4740,6 +4824,9 @@
       </c>
     </row>
     <row r="30" spans="1:61">
+      <c r="C30">
+        <v>1</v>
+      </c>
       <c r="D30" t="s">
         <v>133</v>
       </c>
@@ -4841,6 +4928,9 @@
       </c>
     </row>
     <row r="31" spans="1:61">
+      <c r="C31">
+        <v>1</v>
+      </c>
       <c r="D31" t="s">
         <v>135</v>
       </c>
@@ -4939,6 +5029,9 @@
       </c>
     </row>
     <row r="32" spans="1:61">
+      <c r="C32">
+        <v>1</v>
+      </c>
       <c r="D32" t="s">
         <v>137</v>
       </c>
@@ -5040,6 +5133,9 @@
       </c>
     </row>
     <row r="33" spans="1:61">
+      <c r="C33">
+        <v>1</v>
+      </c>
       <c r="D33" t="s">
         <v>139</v>
       </c>
@@ -5138,6 +5234,9 @@
       </c>
     </row>
     <row r="34" spans="1:61">
+      <c r="C34">
+        <v>1</v>
+      </c>
       <c r="D34" t="s">
         <v>141</v>
       </c>
@@ -5236,6 +5335,9 @@
       </c>
     </row>
     <row r="35" spans="1:61">
+      <c r="C35">
+        <v>1</v>
+      </c>
       <c r="D35" t="s">
         <v>143</v>
       </c>
@@ -5334,6 +5436,9 @@
       </c>
     </row>
     <row r="36" spans="1:61">
+      <c r="C36">
+        <v>1</v>
+      </c>
       <c r="D36" t="s">
         <v>145</v>
       </c>
@@ -5432,6 +5537,9 @@
       </c>
     </row>
     <row r="37" spans="1:61">
+      <c r="C37">
+        <v>1</v>
+      </c>
       <c r="D37" t="s">
         <v>147</v>
       </c>
@@ -5515,6 +5623,9 @@
       </c>
     </row>
     <row r="38" spans="1:61">
+      <c r="C38">
+        <v>1</v>
+      </c>
       <c r="D38" t="s">
         <v>149</v>
       </c>
@@ -5598,6 +5709,9 @@
       </c>
     </row>
     <row r="39" spans="1:61">
+      <c r="C39">
+        <v>1</v>
+      </c>
       <c r="D39" t="s">
         <v>151</v>
       </c>
@@ -5681,6 +5795,9 @@
       </c>
     </row>
     <row r="40" spans="1:61">
+      <c r="C40">
+        <v>1</v>
+      </c>
       <c r="D40" t="s">
         <v>153</v>
       </c>
@@ -5764,6 +5881,9 @@
       </c>
     </row>
     <row r="41" spans="1:61">
+      <c r="C41">
+        <v>1</v>
+      </c>
       <c r="D41" t="s">
         <v>155</v>
       </c>
@@ -5847,6 +5967,9 @@
       </c>
     </row>
     <row r="42" spans="1:61">
+      <c r="C42">
+        <v>1</v>
+      </c>
       <c r="D42" t="s">
         <v>157</v>
       </c>
@@ -5927,6 +6050,9 @@
       </c>
     </row>
     <row r="43" spans="1:61">
+      <c r="C43">
+        <v>1</v>
+      </c>
       <c r="D43" t="s">
         <v>159</v>
       </c>
@@ -6019,6 +6145,9 @@
       </c>
     </row>
     <row r="44" spans="1:61">
+      <c r="C44">
+        <v>1</v>
+      </c>
       <c r="D44" t="s">
         <v>161</v>
       </c>
@@ -6108,6 +6237,9 @@
       </c>
     </row>
     <row r="45" spans="1:61">
+      <c r="C45">
+        <v>1</v>
+      </c>
       <c r="D45" t="s">
         <v>163</v>
       </c>
@@ -6197,6 +6329,9 @@
       </c>
     </row>
     <row r="46" spans="1:61">
+      <c r="C46">
+        <v>1</v>
+      </c>
       <c r="D46" t="s">
         <v>165</v>
       </c>
@@ -6292,6 +6427,9 @@
       </c>
     </row>
     <row r="47" spans="1:61">
+      <c r="C47">
+        <v>1</v>
+      </c>
       <c r="D47" t="s">
         <v>167</v>
       </c>
@@ -6390,6 +6528,9 @@
       </c>
     </row>
     <row r="48" spans="1:61">
+      <c r="C48">
+        <v>1</v>
+      </c>
       <c r="D48" t="s">
         <v>169</v>
       </c>
@@ -6488,6 +6629,9 @@
       </c>
     </row>
     <row r="49" spans="1:61">
+      <c r="C49">
+        <v>1</v>
+      </c>
       <c r="D49" t="s">
         <v>171</v>
       </c>
@@ -6586,6 +6730,9 @@
       </c>
     </row>
     <row r="50" spans="1:61">
+      <c r="C50">
+        <v>1</v>
+      </c>
       <c r="D50" t="s">
         <v>173</v>
       </c>
@@ -6684,6 +6831,9 @@
       </c>
     </row>
     <row r="51" spans="1:61">
+      <c r="C51">
+        <v>1</v>
+      </c>
       <c r="D51" t="s">
         <v>175</v>
       </c>
@@ -6773,6 +6923,9 @@
       </c>
     </row>
     <row r="52" spans="1:61">
+      <c r="C52">
+        <v>1</v>
+      </c>
       <c r="D52" t="s">
         <v>177</v>
       </c>
@@ -6853,6 +7006,9 @@
       </c>
     </row>
     <row r="53" spans="1:61">
+      <c r="C53">
+        <v>1</v>
+      </c>
       <c r="D53" t="s">
         <v>179</v>
       </c>
@@ -6942,6 +7098,9 @@
       </c>
     </row>
     <row r="54" spans="1:61">
+      <c r="C54">
+        <v>1</v>
+      </c>
       <c r="D54" t="s">
         <v>181</v>
       </c>
@@ -7031,6 +7190,9 @@
       </c>
     </row>
     <row r="55" spans="1:61">
+      <c r="C55">
+        <v>1</v>
+      </c>
       <c r="D55" t="s">
         <v>183</v>
       </c>
@@ -7120,6 +7282,9 @@
       </c>
     </row>
     <row r="56" spans="1:61">
+      <c r="C56">
+        <v>1</v>
+      </c>
       <c r="D56" t="s">
         <v>185</v>
       </c>
@@ -7209,6 +7374,9 @@
       </c>
     </row>
     <row r="57" spans="1:61">
+      <c r="C57">
+        <v>1</v>
+      </c>
       <c r="D57" t="s">
         <v>187</v>
       </c>
@@ -7307,6 +7475,9 @@
       </c>
     </row>
     <row r="58" spans="1:61">
+      <c r="C58">
+        <v>1</v>
+      </c>
       <c r="D58" t="s">
         <v>189</v>
       </c>
@@ -7408,6 +7579,9 @@
       </c>
     </row>
     <row r="59" spans="1:61">
+      <c r="C59">
+        <v>1</v>
+      </c>
       <c r="D59" t="s">
         <v>191</v>
       </c>
@@ -7506,6 +7680,9 @@
       </c>
     </row>
     <row r="60" spans="1:61">
+      <c r="C60">
+        <v>1</v>
+      </c>
       <c r="D60" t="s">
         <v>193</v>
       </c>
@@ -7604,6 +7781,9 @@
       </c>
     </row>
     <row r="61" spans="1:61">
+      <c r="C61">
+        <v>1</v>
+      </c>
       <c r="D61" t="s">
         <v>195</v>
       </c>
@@ -7696,6 +7876,9 @@
       </c>
     </row>
     <row r="62" spans="1:61">
+      <c r="C62">
+        <v>1</v>
+      </c>
       <c r="D62" t="s">
         <v>197</v>
       </c>
@@ -7788,6 +7971,9 @@
       </c>
     </row>
     <row r="63" spans="1:61">
+      <c r="C63">
+        <v>1</v>
+      </c>
       <c r="D63" t="s">
         <v>199</v>
       </c>
@@ -7886,6 +8072,9 @@
       </c>
     </row>
     <row r="64" spans="1:61">
+      <c r="C64">
+        <v>1</v>
+      </c>
       <c r="D64" t="s">
         <v>201</v>
       </c>
@@ -7987,6 +8176,9 @@
       </c>
     </row>
     <row r="65" spans="1:61">
+      <c r="C65">
+        <v>1</v>
+      </c>
       <c r="D65" t="s">
         <v>203</v>
       </c>
@@ -8070,6 +8262,9 @@
       </c>
     </row>
     <row r="66" spans="1:61">
+      <c r="C66">
+        <v>1</v>
+      </c>
       <c r="D66" t="s">
         <v>205</v>
       </c>
@@ -8153,6 +8348,9 @@
       </c>
     </row>
     <row r="67" spans="1:61">
+      <c r="C67">
+        <v>1</v>
+      </c>
       <c r="D67" t="s">
         <v>207</v>
       </c>
@@ -8236,6 +8434,9 @@
       </c>
     </row>
     <row r="68" spans="1:61">
+      <c r="C68">
+        <v>1</v>
+      </c>
       <c r="D68" t="s">
         <v>209</v>
       </c>
@@ -8319,6 +8520,9 @@
       </c>
     </row>
     <row r="69" spans="1:61">
+      <c r="C69">
+        <v>1</v>
+      </c>
       <c r="D69" t="s">
         <v>211</v>
       </c>
@@ -8402,6 +8606,9 @@
       </c>
     </row>
     <row r="70" spans="1:61">
+      <c r="C70">
+        <v>1</v>
+      </c>
       <c r="D70" t="s">
         <v>213</v>
       </c>
@@ -8494,6 +8701,9 @@
       </c>
     </row>
     <row r="71" spans="1:61">
+      <c r="C71">
+        <v>1</v>
+      </c>
       <c r="D71" t="s">
         <v>215</v>
       </c>
@@ -8592,6 +8802,9 @@
       </c>
     </row>
     <row r="72" spans="1:61">
+      <c r="C72">
+        <v>1</v>
+      </c>
       <c r="D72" t="s">
         <v>217</v>
       </c>
@@ -8693,6 +8906,9 @@
       </c>
     </row>
     <row r="73" spans="1:61">
+      <c r="C73">
+        <v>1</v>
+      </c>
       <c r="D73" t="s">
         <v>219</v>
       </c>
@@ -8791,6 +9007,9 @@
       </c>
     </row>
     <row r="74" spans="1:61">
+      <c r="C74">
+        <v>1</v>
+      </c>
       <c r="D74" t="s">
         <v>221</v>
       </c>
@@ -8889,6 +9108,9 @@
       </c>
     </row>
     <row r="75" spans="1:61">
+      <c r="C75">
+        <v>1</v>
+      </c>
       <c r="D75" t="s">
         <v>223</v>
       </c>
@@ -8987,6 +9209,9 @@
       </c>
     </row>
     <row r="76" spans="1:61">
+      <c r="C76">
+        <v>1</v>
+      </c>
       <c r="D76" t="s">
         <v>225</v>
       </c>
@@ -9076,6 +9301,9 @@
       </c>
     </row>
     <row r="77" spans="1:61">
+      <c r="C77">
+        <v>1</v>
+      </c>
       <c r="D77" t="s">
         <v>227</v>
       </c>
@@ -9165,6 +9393,9 @@
       </c>
     </row>
     <row r="78" spans="1:61">
+      <c r="C78">
+        <v>1</v>
+      </c>
       <c r="D78" t="s">
         <v>229</v>
       </c>
@@ -9254,6 +9485,9 @@
       </c>
     </row>
     <row r="79" spans="1:61">
+      <c r="C79">
+        <v>1</v>
+      </c>
       <c r="D79" t="s">
         <v>231</v>
       </c>
@@ -9343,6 +9577,9 @@
       </c>
     </row>
     <row r="80" spans="1:61">
+      <c r="C80">
+        <v>1</v>
+      </c>
       <c r="D80" t="s">
         <v>233</v>
       </c>
@@ -9432,6 +9669,9 @@
       </c>
     </row>
     <row r="81" spans="1:61">
+      <c r="C81">
+        <v>1</v>
+      </c>
       <c r="D81" t="s">
         <v>235</v>
       </c>
@@ -9521,6 +9761,9 @@
       </c>
     </row>
     <row r="82" spans="1:61">
+      <c r="C82">
+        <v>1</v>
+      </c>
       <c r="D82" t="s">
         <v>237</v>
       </c>
@@ -9610,6 +9853,9 @@
       </c>
     </row>
     <row r="83" spans="1:61">
+      <c r="C83">
+        <v>1</v>
+      </c>
       <c r="D83" t="s">
         <v>239</v>
       </c>
@@ -9699,6 +9945,9 @@
       </c>
     </row>
     <row r="84" spans="1:61">
+      <c r="C84">
+        <v>1</v>
+      </c>
       <c r="D84" t="s">
         <v>241</v>
       </c>
@@ -9800,6 +10049,9 @@
       </c>
     </row>
     <row r="85" spans="1:61">
+      <c r="C85">
+        <v>1</v>
+      </c>
       <c r="D85" t="s">
         <v>243</v>
       </c>
@@ -9883,6 +10135,9 @@
       </c>
     </row>
     <row r="86" spans="1:61">
+      <c r="C86">
+        <v>1</v>
+      </c>
       <c r="D86" t="s">
         <v>245</v>
       </c>
@@ -9966,6 +10221,9 @@
       </c>
     </row>
     <row r="87" spans="1:61">
+      <c r="C87">
+        <v>1</v>
+      </c>
       <c r="D87" t="s">
         <v>247</v>
       </c>
@@ -10049,6 +10307,9 @@
       </c>
     </row>
     <row r="88" spans="1:61">
+      <c r="C88">
+        <v>1</v>
+      </c>
       <c r="D88" t="s">
         <v>249</v>
       </c>
@@ -10132,6 +10393,9 @@
       </c>
     </row>
     <row r="89" spans="1:61">
+      <c r="C89">
+        <v>1</v>
+      </c>
       <c r="D89" t="s">
         <v>251</v>
       </c>
@@ -10224,6 +10488,9 @@
       </c>
     </row>
     <row r="90" spans="1:61">
+      <c r="C90">
+        <v>1</v>
+      </c>
       <c r="D90" t="s">
         <v>253</v>
       </c>
@@ -10316,6 +10583,9 @@
       </c>
     </row>
     <row r="91" spans="1:61">
+      <c r="C91">
+        <v>1</v>
+      </c>
       <c r="D91" t="s">
         <v>254</v>
       </c>
@@ -10405,6 +10675,9 @@
       </c>
     </row>
     <row r="92" spans="1:61">
+      <c r="C92">
+        <v>1</v>
+      </c>
       <c r="D92" t="s">
         <v>256</v>
       </c>
@@ -10494,6 +10767,9 @@
       </c>
     </row>
     <row r="93" spans="1:61">
+      <c r="C93">
+        <v>1</v>
+      </c>
       <c r="D93" t="s">
         <v>258</v>
       </c>
@@ -10583,6 +10859,9 @@
       </c>
     </row>
     <row r="94" spans="1:61">
+      <c r="C94">
+        <v>1</v>
+      </c>
       <c r="D94" t="s">
         <v>260</v>
       </c>
@@ -10672,6 +10951,9 @@
       </c>
     </row>
     <row r="95" spans="1:61">
+      <c r="C95">
+        <v>1</v>
+      </c>
       <c r="D95" t="s">
         <v>262</v>
       </c>
@@ -10761,6 +11043,9 @@
       </c>
     </row>
     <row r="96" spans="1:61">
+      <c r="C96">
+        <v>1</v>
+      </c>
       <c r="D96" t="s">
         <v>264</v>
       </c>
@@ -10850,6 +11135,9 @@
       </c>
     </row>
     <row r="97" spans="1:61">
+      <c r="C97">
+        <v>1</v>
+      </c>
       <c r="D97" t="s">
         <v>266</v>
       </c>
@@ -10939,6 +11227,9 @@
       </c>
     </row>
     <row r="98" spans="1:61">
+      <c r="C98">
+        <v>1</v>
+      </c>
       <c r="D98" t="s">
         <v>268</v>
       </c>
@@ -11028,6 +11319,9 @@
       </c>
     </row>
     <row r="99" spans="1:61">
+      <c r="C99">
+        <v>1</v>
+      </c>
       <c r="D99" t="s">
         <v>270</v>
       </c>
@@ -11117,6 +11411,9 @@
       </c>
     </row>
     <row r="100" spans="1:61">
+      <c r="C100">
+        <v>1</v>
+      </c>
       <c r="D100" t="s">
         <v>272</v>
       </c>
@@ -11209,6 +11506,9 @@
       </c>
     </row>
     <row r="101" spans="1:61">
+      <c r="C101">
+        <v>1</v>
+      </c>
       <c r="D101" t="s">
         <v>274</v>
       </c>
@@ -11304,6 +11604,9 @@
       </c>
     </row>
     <row r="102" spans="1:61">
+      <c r="C102">
+        <v>1</v>
+      </c>
       <c r="D102" t="s">
         <v>276</v>
       </c>
@@ -11396,6 +11699,9 @@
       </c>
     </row>
     <row r="103" spans="1:61">
+      <c r="C103">
+        <v>1</v>
+      </c>
       <c r="D103" t="s">
         <v>278</v>
       </c>
@@ -11494,6 +11800,9 @@
       </c>
     </row>
     <row r="104" spans="1:61">
+      <c r="C104">
+        <v>1</v>
+      </c>
       <c r="D104" t="s">
         <v>280</v>
       </c>
@@ -11592,6 +11901,9 @@
       </c>
     </row>
     <row r="105" spans="1:61">
+      <c r="C105">
+        <v>1</v>
+      </c>
       <c r="D105" t="s">
         <v>282</v>
       </c>
@@ -11693,6 +12005,9 @@
       </c>
     </row>
     <row r="106" spans="1:61">
+      <c r="C106">
+        <v>1</v>
+      </c>
       <c r="D106" t="s">
         <v>284</v>
       </c>
@@ -11776,6 +12091,9 @@
       </c>
     </row>
     <row r="107" spans="1:61">
+      <c r="C107">
+        <v>1</v>
+      </c>
       <c r="D107" t="s">
         <v>286</v>
       </c>
@@ -11859,6 +12177,9 @@
       </c>
     </row>
     <row r="108" spans="1:61">
+      <c r="C108">
+        <v>1</v>
+      </c>
       <c r="D108" t="s">
         <v>288</v>
       </c>
@@ -11942,6 +12263,9 @@
       </c>
     </row>
     <row r="109" spans="1:61">
+      <c r="C109">
+        <v>1</v>
+      </c>
       <c r="D109" t="s">
         <v>290</v>
       </c>
@@ -12025,6 +12349,9 @@
       </c>
     </row>
     <row r="110" spans="1:61">
+      <c r="C110">
+        <v>1</v>
+      </c>
       <c r="D110" t="s">
         <v>292</v>
       </c>
@@ -12108,6 +12435,9 @@
       </c>
     </row>
     <row r="111" spans="1:61">
+      <c r="C111">
+        <v>1</v>
+      </c>
       <c r="D111" t="s">
         <v>294</v>
       </c>
@@ -12200,6 +12530,9 @@
       </c>
     </row>
     <row r="112" spans="1:61">
+      <c r="C112">
+        <v>1</v>
+      </c>
       <c r="D112" t="s">
         <v>296</v>
       </c>
@@ -12292,6 +12625,9 @@
       </c>
     </row>
     <row r="113" spans="1:61">
+      <c r="C113">
+        <v>1</v>
+      </c>
       <c r="D113" t="s">
         <v>298</v>
       </c>
@@ -12381,6 +12717,9 @@
       </c>
     </row>
     <row r="114" spans="1:61">
+      <c r="C114">
+        <v>1</v>
+      </c>
       <c r="D114" t="s">
         <v>300</v>
       </c>
@@ -12470,6 +12809,9 @@
       </c>
     </row>
     <row r="115" spans="1:61">
+      <c r="C115">
+        <v>1</v>
+      </c>
       <c r="D115" t="s">
         <v>302</v>
       </c>
@@ -12559,6 +12901,9 @@
       </c>
     </row>
     <row r="116" spans="1:61">
+      <c r="C116">
+        <v>1</v>
+      </c>
       <c r="D116" t="s">
         <v>304</v>
       </c>
@@ -12651,6 +12996,9 @@
       </c>
     </row>
     <row r="117" spans="1:61">
+      <c r="C117">
+        <v>1</v>
+      </c>
       <c r="D117" t="s">
         <v>306</v>
       </c>
@@ -12746,6 +13094,9 @@
       </c>
     </row>
     <row r="118" spans="1:61">
+      <c r="C118">
+        <v>1</v>
+      </c>
       <c r="D118" t="s">
         <v>308</v>
       </c>
@@ -12838,6 +13189,9 @@
       </c>
     </row>
     <row r="119" spans="1:61">
+      <c r="C119">
+        <v>1</v>
+      </c>
       <c r="D119" t="s">
         <v>310</v>
       </c>
@@ -12930,6 +13284,9 @@
       </c>
     </row>
     <row r="120" spans="1:61">
+      <c r="C120">
+        <v>1</v>
+      </c>
       <c r="D120" t="s">
         <v>312</v>
       </c>
@@ -13028,6 +13385,9 @@
       </c>
     </row>
     <row r="121" spans="1:61">
+      <c r="C121">
+        <v>1</v>
+      </c>
       <c r="D121" t="s">
         <v>314</v>
       </c>
@@ -13117,6 +13477,9 @@
       </c>
     </row>
     <row r="122" spans="1:61">
+      <c r="C122">
+        <v>1</v>
+      </c>
       <c r="D122" t="s">
         <v>316</v>
       </c>
@@ -13206,6 +13569,9 @@
       </c>
     </row>
     <row r="123" spans="1:61">
+      <c r="C123">
+        <v>1</v>
+      </c>
       <c r="D123" t="s">
         <v>318</v>
       </c>
@@ -13295,6 +13661,9 @@
       </c>
     </row>
     <row r="124" spans="1:61">
+      <c r="C124">
+        <v>1</v>
+      </c>
       <c r="D124" t="s">
         <v>320</v>
       </c>
@@ -13384,6 +13753,9 @@
       </c>
     </row>
     <row r="125" spans="1:61">
+      <c r="C125">
+        <v>1</v>
+      </c>
       <c r="D125" t="s">
         <v>322</v>
       </c>
@@ -13473,6 +13845,9 @@
       </c>
     </row>
     <row r="126" spans="1:61">
+      <c r="C126">
+        <v>1</v>
+      </c>
       <c r="D126" t="s">
         <v>324</v>
       </c>
@@ -13562,6 +13937,9 @@
       </c>
     </row>
     <row r="127" spans="1:61">
+      <c r="C127">
+        <v>1</v>
+      </c>
       <c r="D127" t="s">
         <v>326</v>
       </c>
@@ -13654,6 +14032,9 @@
       </c>
     </row>
     <row r="128" spans="1:61">
+      <c r="C128">
+        <v>1</v>
+      </c>
       <c r="D128" t="s">
         <v>328</v>
       </c>
@@ -13755,6 +14136,9 @@
       </c>
     </row>
     <row r="129" spans="1:61">
+      <c r="C129">
+        <v>1</v>
+      </c>
       <c r="D129" t="s">
         <v>330</v>
       </c>
@@ -13844,6 +14228,9 @@
       </c>
     </row>
     <row r="130" spans="1:61">
+      <c r="C130">
+        <v>1</v>
+      </c>
       <c r="D130" t="s">
         <v>332</v>
       </c>
@@ -13933,6 +14320,9 @@
       </c>
     </row>
     <row r="131" spans="1:61">
+      <c r="C131">
+        <v>1</v>
+      </c>
       <c r="D131" t="s">
         <v>334</v>
       </c>
@@ -14022,6 +14412,9 @@
       </c>
     </row>
     <row r="132" spans="1:61">
+      <c r="C132">
+        <v>1</v>
+      </c>
       <c r="D132" t="s">
         <v>336</v>
       </c>
@@ -14111,6 +14504,9 @@
       </c>
     </row>
     <row r="133" spans="1:61">
+      <c r="C133">
+        <v>1</v>
+      </c>
       <c r="D133" t="s">
         <v>338</v>
       </c>
@@ -14200,6 +14596,9 @@
       </c>
     </row>
     <row r="134" spans="1:61">
+      <c r="C134">
+        <v>1</v>
+      </c>
       <c r="D134" t="s">
         <v>340</v>
       </c>
@@ -14292,6 +14691,9 @@
       </c>
     </row>
     <row r="135" spans="1:61">
+      <c r="C135">
+        <v>1</v>
+      </c>
       <c r="D135" t="s">
         <v>342</v>
       </c>
@@ -14384,6 +14786,9 @@
       </c>
     </row>
     <row r="136" spans="1:61">
+      <c r="C136">
+        <v>1</v>
+      </c>
       <c r="D136" t="s">
         <v>344</v>
       </c>
@@ -14479,6 +14884,9 @@
       </c>
     </row>
     <row r="137" spans="1:61">
+      <c r="C137">
+        <v>1</v>
+      </c>
       <c r="D137" t="s">
         <v>346</v>
       </c>
@@ -14574,6 +14982,9 @@
       </c>
     </row>
     <row r="138" spans="1:61">
+      <c r="C138">
+        <v>1</v>
+      </c>
       <c r="D138" t="s">
         <v>348</v>
       </c>
@@ -14669,6 +15080,9 @@
       </c>
     </row>
     <row r="139" spans="1:61">
+      <c r="C139">
+        <v>1</v>
+      </c>
       <c r="D139" t="s">
         <v>350</v>
       </c>
@@ -14767,6 +15181,9 @@
       </c>
     </row>
     <row r="140" spans="1:61">
+      <c r="C140">
+        <v>1</v>
+      </c>
       <c r="D140" t="s">
         <v>352</v>
       </c>
@@ -14868,6 +15285,9 @@
       </c>
     </row>
     <row r="141" spans="1:61">
+      <c r="C141">
+        <v>1</v>
+      </c>
       <c r="D141" t="s">
         <v>354</v>
       </c>
@@ -14966,6 +15386,9 @@
       </c>
     </row>
     <row r="142" spans="1:61">
+      <c r="C142">
+        <v>1</v>
+      </c>
       <c r="D142" t="s">
         <v>356</v>
       </c>
@@ -15064,6 +15487,9 @@
       </c>
     </row>
     <row r="143" spans="1:61">
+      <c r="C143">
+        <v>1</v>
+      </c>
       <c r="D143" t="s">
         <v>358</v>
       </c>
@@ -15162,6 +15588,9 @@
       </c>
     </row>
     <row r="144" spans="1:61">
+      <c r="C144">
+        <v>1</v>
+      </c>
       <c r="D144" t="s">
         <v>360</v>
       </c>
@@ -15257,6 +15686,9 @@
       </c>
     </row>
     <row r="145" spans="1:61">
+      <c r="C145">
+        <v>1</v>
+      </c>
       <c r="D145" t="s">
         <v>362</v>
       </c>
@@ -15352,6 +15784,9 @@
       </c>
     </row>
     <row r="146" spans="1:61">
+      <c r="C146">
+        <v>1</v>
+      </c>
       <c r="D146" t="s">
         <v>364</v>
       </c>
@@ -15447,6 +15882,9 @@
       </c>
     </row>
     <row r="147" spans="1:61">
+      <c r="C147">
+        <v>1</v>
+      </c>
       <c r="D147" t="s">
         <v>366</v>
       </c>
@@ -15542,6 +15980,9 @@
       </c>
     </row>
     <row r="148" spans="1:61">
+      <c r="C148">
+        <v>1</v>
+      </c>
       <c r="D148" t="s">
         <v>368</v>
       </c>
@@ -15637,6 +16078,9 @@
       </c>
     </row>
     <row r="149" spans="1:61">
+      <c r="C149">
+        <v>1</v>
+      </c>
       <c r="D149" t="s">
         <v>369</v>
       </c>
@@ -15732,6 +16176,9 @@
       </c>
     </row>
     <row r="150" spans="1:61">
+      <c r="C150">
+        <v>1</v>
+      </c>
       <c r="D150" t="s">
         <v>371</v>
       </c>
@@ -15833,6 +16280,9 @@
       </c>
     </row>
     <row r="151" spans="1:61">
+      <c r="C151">
+        <v>1</v>
+      </c>
       <c r="D151" t="s">
         <v>373</v>
       </c>
@@ -15925,6 +16375,9 @@
       </c>
     </row>
     <row r="152" spans="1:61">
+      <c r="C152">
+        <v>1</v>
+      </c>
       <c r="D152" t="s">
         <v>375</v>
       </c>
@@ -16014,6 +16467,9 @@
       </c>
     </row>
     <row r="153" spans="1:61">
+      <c r="C153">
+        <v>1</v>
+      </c>
       <c r="D153" t="s">
         <v>377</v>
       </c>
@@ -16103,6 +16559,9 @@
       </c>
     </row>
     <row r="154" spans="1:61">
+      <c r="C154">
+        <v>1</v>
+      </c>
       <c r="D154" t="s">
         <v>379</v>
       </c>
@@ -16192,6 +16651,9 @@
       </c>
     </row>
     <row r="155" spans="1:61">
+      <c r="C155">
+        <v>1</v>
+      </c>
       <c r="D155" t="s">
         <v>381</v>
       </c>
@@ -16281,6 +16743,9 @@
       </c>
     </row>
     <row r="156" spans="1:61">
+      <c r="C156">
+        <v>1</v>
+      </c>
       <c r="D156" t="s">
         <v>383</v>
       </c>
@@ -16373,6 +16838,9 @@
       </c>
     </row>
     <row r="157" spans="1:61">
+      <c r="C157">
+        <v>1</v>
+      </c>
       <c r="D157" t="s">
         <v>385</v>
       </c>
@@ -16465,6 +16933,9 @@
       </c>
     </row>
     <row r="158" spans="1:61">
+      <c r="C158">
+        <v>1</v>
+      </c>
       <c r="D158" t="s">
         <v>387</v>
       </c>
@@ -16560,6 +17031,9 @@
       </c>
     </row>
     <row r="159" spans="1:61">
+      <c r="C159">
+        <v>1</v>
+      </c>
       <c r="D159" t="s">
         <v>389</v>
       </c>
@@ -16655,6 +17129,9 @@
       </c>
     </row>
     <row r="160" spans="1:61">
+      <c r="C160">
+        <v>1</v>
+      </c>
       <c r="D160" t="s">
         <v>391</v>
       </c>
@@ -16750,6 +17227,9 @@
       </c>
     </row>
     <row r="161" spans="1:61">
+      <c r="C161">
+        <v>1</v>
+      </c>
       <c r="D161" t="s">
         <v>393</v>
       </c>
@@ -16848,6 +17328,9 @@
       </c>
     </row>
     <row r="162" spans="1:61">
+      <c r="C162">
+        <v>1</v>
+      </c>
       <c r="D162" t="s">
         <v>395</v>
       </c>
@@ -16949,6 +17432,9 @@
       </c>
     </row>
     <row r="163" spans="1:61">
+      <c r="C163">
+        <v>1</v>
+      </c>
       <c r="D163" t="s">
         <v>397</v>
       </c>
@@ -17047,6 +17533,9 @@
       </c>
     </row>
     <row r="164" spans="1:61">
+      <c r="C164">
+        <v>1</v>
+      </c>
       <c r="D164" t="s">
         <v>399</v>
       </c>
@@ -17145,6 +17634,9 @@
       </c>
     </row>
     <row r="165" spans="1:61">
+      <c r="C165">
+        <v>1</v>
+      </c>
       <c r="D165" t="s">
         <v>401</v>
       </c>
@@ -17243,6 +17735,9 @@
       </c>
     </row>
     <row r="166" spans="1:61">
+      <c r="C166">
+        <v>1</v>
+      </c>
       <c r="D166" t="s">
         <v>403</v>
       </c>
@@ -17338,6 +17833,9 @@
       </c>
     </row>
     <row r="167" spans="1:61">
+      <c r="C167">
+        <v>1</v>
+      </c>
       <c r="D167" t="s">
         <v>405</v>
       </c>
@@ -17436,6 +17934,9 @@
       </c>
     </row>
     <row r="168" spans="1:61">
+      <c r="C168">
+        <v>1</v>
+      </c>
       <c r="D168" t="s">
         <v>407</v>
       </c>
@@ -17531,6 +18032,9 @@
       </c>
     </row>
     <row r="169" spans="1:61">
+      <c r="C169">
+        <v>1</v>
+      </c>
       <c r="D169" t="s">
         <v>409</v>
       </c>
@@ -17626,6 +18130,9 @@
       </c>
     </row>
     <row r="170" spans="1:61">
+      <c r="C170">
+        <v>1</v>
+      </c>
       <c r="D170" t="s">
         <v>411</v>
       </c>
@@ -17721,6 +18228,9 @@
       </c>
     </row>
     <row r="171" spans="1:61">
+      <c r="C171">
+        <v>1</v>
+      </c>
       <c r="D171" t="s">
         <v>413</v>
       </c>
@@ -17816,6 +18326,9 @@
       </c>
     </row>
     <row r="172" spans="1:61">
+      <c r="C172">
+        <v>1</v>
+      </c>
       <c r="D172" t="s">
         <v>415</v>
       </c>
@@ -17911,6 +18424,9 @@
       </c>
     </row>
     <row r="173" spans="1:61">
+      <c r="C173">
+        <v>1</v>
+      </c>
       <c r="D173" t="s">
         <v>417</v>
       </c>
@@ -18012,6 +18528,9 @@
       </c>
     </row>
     <row r="174" spans="1:61">
+      <c r="C174">
+        <v>1</v>
+      </c>
       <c r="D174" t="s">
         <v>419</v>
       </c>
@@ -18101,6 +18620,9 @@
       </c>
     </row>
     <row r="175" spans="1:61">
+      <c r="C175">
+        <v>1</v>
+      </c>
       <c r="D175" t="s">
         <v>421</v>
       </c>
@@ -18190,6 +18712,9 @@
       </c>
     </row>
     <row r="176" spans="1:61">
+      <c r="C176">
+        <v>1</v>
+      </c>
       <c r="D176" t="s">
         <v>423</v>
       </c>
@@ -18279,6 +18804,9 @@
       </c>
     </row>
     <row r="177" spans="1:61">
+      <c r="C177">
+        <v>1</v>
+      </c>
       <c r="D177" t="s">
         <v>425</v>
       </c>
@@ -18368,6 +18896,9 @@
       </c>
     </row>
     <row r="178" spans="1:61">
+      <c r="C178">
+        <v>1</v>
+      </c>
       <c r="D178" t="s">
         <v>427</v>
       </c>
@@ -18460,6 +18991,9 @@
       </c>
     </row>
     <row r="179" spans="1:61">
+      <c r="C179">
+        <v>1</v>
+      </c>
       <c r="D179" t="s">
         <v>429</v>
       </c>
@@ -18552,6 +19086,9 @@
       </c>
     </row>
     <row r="180" spans="1:61">
+      <c r="C180">
+        <v>1</v>
+      </c>
       <c r="D180" t="s">
         <v>431</v>
       </c>
@@ -18647,6 +19184,9 @@
       </c>
     </row>
     <row r="181" spans="1:61">
+      <c r="C181">
+        <v>1</v>
+      </c>
       <c r="D181" t="s">
         <v>433</v>
       </c>
@@ -18742,6 +19282,9 @@
       </c>
     </row>
     <row r="182" spans="1:61">
+      <c r="C182">
+        <v>1</v>
+      </c>
       <c r="D182" t="s">
         <v>435</v>
       </c>
@@ -18837,6 +19380,9 @@
       </c>
     </row>
     <row r="183" spans="1:61">
+      <c r="C183">
+        <v>1</v>
+      </c>
       <c r="D183" t="s">
         <v>437</v>
       </c>
@@ -18935,6 +19481,9 @@
       </c>
     </row>
     <row r="184" spans="1:61">
+      <c r="C184">
+        <v>1</v>
+      </c>
       <c r="D184" t="s">
         <v>439</v>
       </c>
@@ -19036,6 +19585,9 @@
       </c>
     </row>
     <row r="185" spans="1:61">
+      <c r="C185">
+        <v>1</v>
+      </c>
       <c r="D185" t="s">
         <v>441</v>
       </c>
@@ -19134,6 +19686,9 @@
       </c>
     </row>
     <row r="186" spans="1:61">
+      <c r="C186">
+        <v>1</v>
+      </c>
       <c r="D186" t="s">
         <v>443</v>
       </c>
@@ -19229,6 +19784,9 @@
       </c>
     </row>
     <row r="187" spans="1:61">
+      <c r="C187">
+        <v>1</v>
+      </c>
       <c r="D187" t="s">
         <v>445</v>
       </c>
@@ -19327,6 +19885,9 @@
       </c>
     </row>
     <row r="188" spans="1:61">
+      <c r="C188">
+        <v>1</v>
+      </c>
       <c r="D188" t="s">
         <v>447</v>
       </c>
@@ -19422,6 +19983,9 @@
       </c>
     </row>
     <row r="189" spans="1:61">
+      <c r="C189">
+        <v>1</v>
+      </c>
       <c r="D189" t="s">
         <v>449</v>
       </c>
@@ -19517,6 +20081,9 @@
       </c>
     </row>
     <row r="190" spans="1:61">
+      <c r="C190">
+        <v>1</v>
+      </c>
       <c r="D190" t="s">
         <v>451</v>
       </c>
@@ -19612,6 +20179,9 @@
       </c>
     </row>
     <row r="191" spans="1:61">
+      <c r="C191">
+        <v>1</v>
+      </c>
       <c r="D191" t="s">
         <v>453</v>
       </c>
@@ -19707,6 +20277,9 @@
       </c>
     </row>
     <row r="192" spans="1:61">
+      <c r="C192">
+        <v>1</v>
+      </c>
       <c r="D192" t="s">
         <v>455</v>
       </c>
@@ -19802,6 +20375,9 @@
       </c>
     </row>
     <row r="193" spans="1:61">
+      <c r="C193">
+        <v>1</v>
+      </c>
       <c r="D193" t="s">
         <v>457</v>
       </c>
@@ -19906,6 +20482,9 @@
       </c>
     </row>
     <row r="194" spans="1:61">
+      <c r="C194">
+        <v>1</v>
+      </c>
       <c r="D194" t="s">
         <v>459</v>
       </c>
@@ -19998,6 +20577,9 @@
       </c>
     </row>
     <row r="195" spans="1:61">
+      <c r="C195">
+        <v>1</v>
+      </c>
       <c r="D195" t="s">
         <v>461</v>
       </c>
@@ -20090,6 +20672,9 @@
       </c>
     </row>
     <row r="196" spans="1:61">
+      <c r="C196">
+        <v>1</v>
+      </c>
       <c r="D196" t="s">
         <v>463</v>
       </c>
@@ -20182,6 +20767,9 @@
       </c>
     </row>
     <row r="197" spans="1:61">
+      <c r="C197">
+        <v>1</v>
+      </c>
       <c r="D197" t="s">
         <v>465</v>
       </c>
@@ -20274,6 +20862,9 @@
       </c>
     </row>
     <row r="198" spans="1:61">
+      <c r="C198">
+        <v>1</v>
+      </c>
       <c r="D198" t="s">
         <v>467</v>
       </c>
@@ -20366,6 +20957,9 @@
       </c>
     </row>
     <row r="199" spans="1:61">
+      <c r="C199">
+        <v>1</v>
+      </c>
       <c r="D199" t="s">
         <v>469</v>
       </c>
@@ -20461,6 +21055,9 @@
       </c>
     </row>
     <row r="200" spans="1:61">
+      <c r="C200">
+        <v>1</v>
+      </c>
       <c r="D200" t="s">
         <v>471</v>
       </c>
@@ -20556,6 +21153,9 @@
       </c>
     </row>
     <row r="201" spans="1:61">
+      <c r="C201">
+        <v>1</v>
+      </c>
       <c r="D201" t="s">
         <v>473</v>
       </c>
@@ -20654,6 +21254,9 @@
       </c>
     </row>
     <row r="202" spans="1:61">
+      <c r="C202">
+        <v>1</v>
+      </c>
       <c r="D202" t="s">
         <v>475</v>
       </c>
@@ -20752,6 +21355,9 @@
       </c>
     </row>
     <row r="203" spans="1:61">
+      <c r="C203">
+        <v>1</v>
+      </c>
       <c r="D203" t="s">
         <v>477</v>
       </c>
@@ -20856,6 +21462,9 @@
       </c>
     </row>
     <row r="204" spans="1:61">
+      <c r="C204">
+        <v>1</v>
+      </c>
       <c r="D204" t="s">
         <v>479</v>
       </c>
@@ -20957,6 +21566,9 @@
       </c>
     </row>
     <row r="205" spans="1:61">
+      <c r="C205">
+        <v>1</v>
+      </c>
       <c r="D205" t="s">
         <v>481</v>
       </c>
@@ -21055,6 +21667,9 @@
       </c>
     </row>
     <row r="206" spans="1:61">
+      <c r="C206">
+        <v>1</v>
+      </c>
       <c r="D206" t="s">
         <v>483</v>
       </c>
@@ -21156,6 +21771,9 @@
       </c>
     </row>
     <row r="207" spans="1:61">
+      <c r="C207">
+        <v>1</v>
+      </c>
       <c r="D207" t="s">
         <v>485</v>
       </c>
@@ -21257,6 +21875,9 @@
       </c>
     </row>
     <row r="208" spans="1:61">
+      <c r="C208">
+        <v>1</v>
+      </c>
       <c r="D208" t="s">
         <v>487</v>
       </c>
@@ -21358,6 +21979,9 @@
       </c>
     </row>
     <row r="209" spans="1:61">
+      <c r="C209">
+        <v>1</v>
+      </c>
       <c r="D209" t="s">
         <v>489</v>
       </c>
@@ -21456,6 +22080,9 @@
       </c>
     </row>
     <row r="210" spans="1:61">
+      <c r="C210">
+        <v>1</v>
+      </c>
       <c r="D210" t="s">
         <v>491</v>
       </c>
@@ -21554,6 +22181,9 @@
       </c>
     </row>
     <row r="211" spans="1:61">
+      <c r="C211">
+        <v>1</v>
+      </c>
       <c r="D211" t="s">
         <v>493</v>
       </c>
@@ -21652,6 +22282,9 @@
       </c>
     </row>
     <row r="212" spans="1:61">
+      <c r="C212">
+        <v>1</v>
+      </c>
       <c r="D212" t="s">
         <v>495</v>
       </c>
@@ -21753,6 +22386,9 @@
       </c>
     </row>
     <row r="213" spans="1:61">
+      <c r="C213">
+        <v>1</v>
+      </c>
       <c r="D213" t="s">
         <v>497</v>
       </c>
@@ -21851,6 +22487,9 @@
       </c>
     </row>
     <row r="214" spans="1:61">
+      <c r="C214">
+        <v>1</v>
+      </c>
       <c r="D214" t="s">
         <v>499</v>
       </c>
@@ -21949,6 +22588,9 @@
       </c>
     </row>
     <row r="215" spans="1:61">
+      <c r="C215">
+        <v>1</v>
+      </c>
       <c r="D215" t="s">
         <v>501</v>
       </c>
@@ -22047,6 +22689,9 @@
       </c>
     </row>
     <row r="216" spans="1:61">
+      <c r="C216">
+        <v>1</v>
+      </c>
       <c r="D216" t="s">
         <v>503</v>
       </c>
@@ -22142,6 +22787,9 @@
       </c>
     </row>
     <row r="217" spans="1:61">
+      <c r="C217">
+        <v>1</v>
+      </c>
       <c r="D217" t="s">
         <v>505</v>
       </c>
@@ -22237,6 +22885,9 @@
       </c>
     </row>
     <row r="218" spans="1:61">
+      <c r="C218">
+        <v>1</v>
+      </c>
       <c r="D218" t="s">
         <v>507</v>
       </c>
@@ -22353,6 +23004,9 @@
       </c>
     </row>
     <row r="219" spans="1:61">
+      <c r="C219">
+        <v>1</v>
+      </c>
       <c r="D219" t="s">
         <v>509</v>
       </c>
@@ -22475,6 +23129,9 @@
       </c>
     </row>
     <row r="220" spans="1:61">
+      <c r="C220">
+        <v>1</v>
+      </c>
       <c r="D220" t="s">
         <v>511</v>
       </c>
@@ -22582,6 +23239,9 @@
       </c>
     </row>
     <row r="221" spans="1:61">
+      <c r="C221">
+        <v>1</v>
+      </c>
       <c r="D221" t="s">
         <v>513</v>
       </c>
@@ -22692,6 +23352,9 @@
       </c>
     </row>
     <row r="222" spans="1:61">
+      <c r="C222">
+        <v>1</v>
+      </c>
       <c r="D222" t="s">
         <v>515</v>
       </c>
